--- a/data/hake_singlesp_220307.xlsx
+++ b/data/hake_singlesp_220307.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5520A582-B024-E447-A138-963FF4EE8016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F65ABC8-D44E-8A49-9A8D-ADA9A20E0F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="25600" windowHeight="42700" firstSheet="9" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="25600" windowHeight="42700" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="505">
   <si>
     <t>Number</t>
   </si>
@@ -1554,12 +1554,6 @@
     <t>fecundity</t>
   </si>
   <si>
-    <t>popwt_mid</t>
-  </si>
-  <si>
-    <t>popwt_beg</t>
-  </si>
-  <si>
     <t>wt_flt_1</t>
   </si>
   <si>
@@ -4379,10 +4373,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AI201"/>
+  <dimension ref="A1:AI121"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:XFD175"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13734,6166 +13728,6 @@
         <v>0.79339999999999999</v>
       </c>
       <c r="Y121">
-        <v>0.79339999999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>505</v>
-      </c>
-      <c r="B122">
-        <v>4</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>1980</v>
-      </c>
-      <c r="F122">
-        <v>0.08</v>
-      </c>
-      <c r="G122">
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="H122">
-        <v>0.45290000000000002</v>
-      </c>
-      <c r="I122">
-        <v>0.39219999999999999</v>
-      </c>
-      <c r="J122">
-        <v>0.4904</v>
-      </c>
-      <c r="K122">
-        <v>0.51659999999999995</v>
-      </c>
-      <c r="L122">
-        <v>0.65539999999999998</v>
-      </c>
-      <c r="M122">
-        <v>0.71360000000000001</v>
-      </c>
-      <c r="N122">
-        <v>0.874</v>
-      </c>
-      <c r="O122">
-        <v>1.0626</v>
-      </c>
-      <c r="P122">
-        <v>1.1623000000000001</v>
-      </c>
-      <c r="Q122">
-        <v>1.2898000000000001</v>
-      </c>
-      <c r="R122">
-        <v>1.3001</v>
-      </c>
-      <c r="S122">
-        <v>1.2699</v>
-      </c>
-      <c r="T122">
-        <v>1.3960999999999999</v>
-      </c>
-      <c r="U122">
-        <v>1.3960999999999999</v>
-      </c>
-      <c r="V122">
-        <v>1.3960999999999999</v>
-      </c>
-      <c r="W122">
-        <v>1.3960999999999999</v>
-      </c>
-      <c r="X122">
-        <v>1.3960999999999999</v>
-      </c>
-      <c r="Y122">
-        <v>1.3960999999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>505</v>
-      </c>
-      <c r="B123">
-        <v>4</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>1981</v>
-      </c>
-      <c r="F123">
-        <v>0.1074</v>
-      </c>
-      <c r="G123">
-        <v>0.2137</v>
-      </c>
-      <c r="H123">
-        <v>0.3422</v>
-      </c>
-      <c r="I123">
-        <v>0.52639999999999998</v>
-      </c>
-      <c r="J123">
-        <v>0.39329999999999998</v>
-      </c>
-      <c r="K123">
-        <v>0.52539999999999998</v>
-      </c>
-      <c r="L123">
-        <v>0.54620000000000002</v>
-      </c>
-      <c r="M123">
-        <v>0.74639999999999995</v>
-      </c>
-      <c r="N123">
-        <v>0.72040000000000004</v>
-      </c>
-      <c r="O123">
-        <v>0.82310000000000005</v>
-      </c>
-      <c r="P123">
-        <v>1.0412999999999999</v>
-      </c>
-      <c r="Q123">
-        <v>1.0989</v>
-      </c>
-      <c r="R123">
-        <v>1.3449</v>
-      </c>
-      <c r="S123">
-        <v>1.4925999999999999</v>
-      </c>
-      <c r="T123">
-        <v>1.2128000000000001</v>
-      </c>
-      <c r="U123">
-        <v>1.2128000000000001</v>
-      </c>
-      <c r="V123">
-        <v>1.2128000000000001</v>
-      </c>
-      <c r="W123">
-        <v>1.2128000000000001</v>
-      </c>
-      <c r="X123">
-        <v>1.2128000000000001</v>
-      </c>
-      <c r="Y123">
-        <v>1.2128000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>505</v>
-      </c>
-      <c r="B124">
-        <v>4</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1982</v>
-      </c>
-      <c r="F124">
-        <v>0.1181</v>
-      </c>
-      <c r="G124">
-        <v>0.2465</v>
-      </c>
-      <c r="H124">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="I124">
-        <v>0.30969999999999998</v>
-      </c>
-      <c r="J124">
-        <v>0.54959999999999998</v>
-      </c>
-      <c r="K124">
-        <v>0.39560000000000001</v>
-      </c>
-      <c r="L124">
-        <v>0.52749999999999997</v>
-      </c>
-      <c r="M124">
-        <v>0.56289999999999996</v>
-      </c>
-      <c r="N124">
-        <v>0.76060000000000005</v>
-      </c>
-      <c r="O124">
-        <v>0.68369999999999997</v>
-      </c>
-      <c r="P124">
-        <v>0.85389999999999999</v>
-      </c>
-      <c r="Q124">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="R124">
-        <v>0.87929999999999997</v>
-      </c>
-      <c r="S124">
-        <v>1.0185999999999999</v>
-      </c>
-      <c r="T124">
-        <v>1.1693</v>
-      </c>
-      <c r="U124">
-        <v>1.1693</v>
-      </c>
-      <c r="V124">
-        <v>1.1693</v>
-      </c>
-      <c r="W124">
-        <v>1.1693</v>
-      </c>
-      <c r="X124">
-        <v>1.1693</v>
-      </c>
-      <c r="Y124">
-        <v>1.1693</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>505</v>
-      </c>
-      <c r="B125">
-        <v>4</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>1983</v>
-      </c>
-      <c r="F125">
-        <v>0.12870000000000001</v>
-      </c>
-      <c r="G125">
-        <v>0.13569999999999999</v>
-      </c>
-      <c r="H125">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="I125">
-        <v>0.36940000000000001</v>
-      </c>
-      <c r="J125">
-        <v>0.32769999999999999</v>
-      </c>
-      <c r="K125">
-        <v>0.52</v>
-      </c>
-      <c r="L125">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="M125">
-        <v>0.6179</v>
-      </c>
-      <c r="N125">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="O125">
-        <v>0.88</v>
-      </c>
-      <c r="P125">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="Q125">
-        <v>1.0356000000000001</v>
-      </c>
-      <c r="R125">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="S125">
-        <v>1.3217000000000001</v>
-      </c>
-      <c r="T125">
-        <v>1.4823</v>
-      </c>
-      <c r="U125">
-        <v>1.4823</v>
-      </c>
-      <c r="V125">
-        <v>1.4823</v>
-      </c>
-      <c r="W125">
-        <v>1.4823</v>
-      </c>
-      <c r="X125">
-        <v>1.4823</v>
-      </c>
-      <c r="Y125">
-        <v>1.4823</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>505</v>
-      </c>
-      <c r="B126">
-        <v>4</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <v>1984</v>
-      </c>
-      <c r="F126">
-        <v>0.13150000000000001</v>
-      </c>
-      <c r="G126">
-        <v>0.16420000000000001</v>
-      </c>
-      <c r="H126">
-        <v>0.24929999999999999</v>
-      </c>
-      <c r="I126">
-        <v>0.43840000000000001</v>
-      </c>
-      <c r="J126">
-        <v>0.4113</v>
-      </c>
-      <c r="K126">
-        <v>0.43519999999999998</v>
-      </c>
-      <c r="L126">
-        <v>0.58720000000000006</v>
-      </c>
-      <c r="M126">
-        <v>0.58020000000000005</v>
-      </c>
-      <c r="N126">
-        <v>0.67579999999999996</v>
-      </c>
-      <c r="O126">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="P126">
-        <v>0.95130000000000003</v>
-      </c>
-      <c r="Q126">
-        <v>1.1364000000000001</v>
-      </c>
-      <c r="R126">
-        <v>1.0258</v>
-      </c>
-      <c r="S126">
-        <v>1.2806999999999999</v>
-      </c>
-      <c r="T126">
-        <v>1.88</v>
-      </c>
-      <c r="U126">
-        <v>1.88</v>
-      </c>
-      <c r="V126">
-        <v>1.88</v>
-      </c>
-      <c r="W126">
-        <v>1.88</v>
-      </c>
-      <c r="X126">
-        <v>1.88</v>
-      </c>
-      <c r="Y126">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>505</v>
-      </c>
-      <c r="B127">
-        <v>4</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>1985</v>
-      </c>
-      <c r="F127">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="G127">
-        <v>0.22969999999999999</v>
-      </c>
-      <c r="H127">
-        <v>0.26790000000000003</v>
-      </c>
-      <c r="I127">
-        <v>0.44140000000000001</v>
-      </c>
-      <c r="J127">
-        <v>0.54959999999999998</v>
-      </c>
-      <c r="K127">
-        <v>0.5474</v>
-      </c>
-      <c r="L127">
-        <v>0.60170000000000001</v>
-      </c>
-      <c r="M127">
-        <v>0.74519999999999997</v>
-      </c>
-      <c r="N127">
-        <v>0.69330000000000003</v>
-      </c>
-      <c r="O127">
-        <v>0.72309999999999997</v>
-      </c>
-      <c r="P127">
-        <v>0.85840000000000005</v>
-      </c>
-      <c r="Q127">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="R127">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="S127">
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="T127">
-        <v>1.1216999999999999</v>
-      </c>
-      <c r="U127">
-        <v>1.1216999999999999</v>
-      </c>
-      <c r="V127">
-        <v>1.1216999999999999</v>
-      </c>
-      <c r="W127">
-        <v>1.1216999999999999</v>
-      </c>
-      <c r="X127">
-        <v>1.1216999999999999</v>
-      </c>
-      <c r="Y127">
-        <v>1.1216999999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>505</v>
-      </c>
-      <c r="B128">
-        <v>4</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>1986</v>
-      </c>
-      <c r="F128">
-        <v>0.1555</v>
-      </c>
-      <c r="G128">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="H128">
-        <v>0.29060000000000002</v>
-      </c>
-      <c r="I128">
-        <v>0.3024</v>
-      </c>
-      <c r="J128">
-        <v>0.3735</v>
-      </c>
-      <c r="K128">
-        <v>0.54259999999999997</v>
-      </c>
-      <c r="L128">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="M128">
-        <v>0.6421</v>
-      </c>
-      <c r="N128">
-        <v>0.82089999999999996</v>
-      </c>
-      <c r="O128">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="P128">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="Q128">
-        <v>1.19</v>
-      </c>
-      <c r="R128">
-        <v>1.3736999999999999</v>
-      </c>
-      <c r="S128">
-        <v>1.68</v>
-      </c>
-      <c r="T128">
-        <v>1.6142000000000001</v>
-      </c>
-      <c r="U128">
-        <v>1.6142000000000001</v>
-      </c>
-      <c r="V128">
-        <v>1.6142000000000001</v>
-      </c>
-      <c r="W128">
-        <v>1.6142000000000001</v>
-      </c>
-      <c r="X128">
-        <v>1.6142000000000001</v>
-      </c>
-      <c r="Y128">
-        <v>1.6142000000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>505</v>
-      </c>
-      <c r="B129">
-        <v>4</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>1987</v>
-      </c>
-      <c r="F129">
-        <v>0.14779999999999999</v>
-      </c>
-      <c r="G129">
-        <v>0.13880000000000001</v>
-      </c>
-      <c r="H129">
-        <v>0.379</v>
-      </c>
-      <c r="I129">
-        <v>0.27860000000000001</v>
-      </c>
-      <c r="J129">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="K129">
-        <v>0.36209999999999998</v>
-      </c>
-      <c r="L129">
-        <v>0.57750000000000001</v>
-      </c>
-      <c r="M129">
-        <v>0.59750000000000003</v>
-      </c>
-      <c r="N129">
-        <v>0.63690000000000002</v>
-      </c>
-      <c r="O129">
-        <v>0.76380000000000003</v>
-      </c>
-      <c r="P129">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="Q129">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="R129">
-        <v>1.2406999999999999</v>
-      </c>
-      <c r="S129">
-        <v>1.2031000000000001</v>
-      </c>
-      <c r="T129">
-        <v>1.4157</v>
-      </c>
-      <c r="U129">
-        <v>1.4157</v>
-      </c>
-      <c r="V129">
-        <v>1.4157</v>
-      </c>
-      <c r="W129">
-        <v>1.4157</v>
-      </c>
-      <c r="X129">
-        <v>1.4157</v>
-      </c>
-      <c r="Y129">
-        <v>1.4157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>505</v>
-      </c>
-      <c r="B130">
-        <v>4</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>1988</v>
-      </c>
-      <c r="F130">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G130">
-        <v>0.187</v>
-      </c>
-      <c r="H130">
-        <v>0.31890000000000002</v>
-      </c>
-      <c r="I130">
-        <v>0.47110000000000002</v>
-      </c>
-      <c r="J130">
-        <v>0.36890000000000001</v>
-      </c>
-      <c r="K130">
-        <v>0.37309999999999999</v>
-      </c>
-      <c r="L130">
-        <v>0.51629999999999998</v>
-      </c>
-      <c r="M130">
-        <v>0.64710000000000001</v>
-      </c>
-      <c r="N130">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="O130">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="P130">
-        <v>0.92110000000000003</v>
-      </c>
-      <c r="Q130">
-        <v>1.0924</v>
-      </c>
-      <c r="R130">
-        <v>1.0225</v>
-      </c>
-      <c r="S130">
-        <v>1.45</v>
-      </c>
-      <c r="T130">
-        <v>1.4537</v>
-      </c>
-      <c r="U130">
-        <v>1.4537</v>
-      </c>
-      <c r="V130">
-        <v>1.4537</v>
-      </c>
-      <c r="W130">
-        <v>1.4537</v>
-      </c>
-      <c r="X130">
-        <v>1.4537</v>
-      </c>
-      <c r="Y130">
-        <v>1.4537</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>505</v>
-      </c>
-      <c r="B131">
-        <v>4</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>1989</v>
-      </c>
-      <c r="F131">
-        <v>0.1389</v>
-      </c>
-      <c r="G131">
-        <v>0.2737</v>
-      </c>
-      <c r="H131">
-        <v>0.30470000000000003</v>
-      </c>
-      <c r="I131">
-        <v>0.29310000000000003</v>
-      </c>
-      <c r="J131">
-        <v>0.51339999999999997</v>
-      </c>
-      <c r="K131">
-        <v>0.43859999999999999</v>
-      </c>
-      <c r="L131">
-        <v>0.40639999999999998</v>
-      </c>
-      <c r="M131">
-        <v>0.51670000000000005</v>
-      </c>
-      <c r="N131">
-        <v>0.62629999999999997</v>
-      </c>
-      <c r="O131">
-        <v>0.66110000000000002</v>
-      </c>
-      <c r="P131">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="Q131">
-        <v>0.87580000000000002</v>
-      </c>
-      <c r="R131">
-        <v>0.66859999999999997</v>
-      </c>
-      <c r="S131">
-        <v>0.82820000000000005</v>
-      </c>
-      <c r="T131">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="U131">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="V131">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="W131">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="X131">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="Y131">
-        <v>1.1264000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>505</v>
-      </c>
-      <c r="B132">
-        <v>4</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132">
-        <v>1990</v>
-      </c>
-      <c r="F132">
-        <v>0.13780000000000001</v>
-      </c>
-      <c r="G132">
-        <v>0.24349999999999999</v>
-      </c>
-      <c r="H132">
-        <v>0.35060000000000002</v>
-      </c>
-      <c r="I132">
-        <v>0.3906</v>
-      </c>
-      <c r="J132">
-        <v>0.5111</v>
-      </c>
-      <c r="K132">
-        <v>0.54620000000000002</v>
-      </c>
-      <c r="L132">
-        <v>0.60760000000000003</v>
-      </c>
-      <c r="M132">
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="N132">
-        <v>0.53</v>
-      </c>
-      <c r="O132">
-        <v>0.76970000000000005</v>
-      </c>
-      <c r="P132">
-        <v>0.83120000000000005</v>
-      </c>
-      <c r="Q132">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R132">
-        <v>1.1847000000000001</v>
-      </c>
-      <c r="S132">
-        <v>1.0165999999999999</v>
-      </c>
-      <c r="T132">
-        <v>1.4668000000000001</v>
-      </c>
-      <c r="U132">
-        <v>1.4668000000000001</v>
-      </c>
-      <c r="V132">
-        <v>1.4668000000000001</v>
-      </c>
-      <c r="W132">
-        <v>1.4668000000000001</v>
-      </c>
-      <c r="X132">
-        <v>1.4668000000000001</v>
-      </c>
-      <c r="Y132">
-        <v>1.4668000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>505</v>
-      </c>
-      <c r="B133">
-        <v>4</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>1991</v>
-      </c>
-      <c r="F133">
-        <v>0.13669999999999999</v>
-      </c>
-      <c r="G133">
-        <v>0.27539999999999998</v>
-      </c>
-      <c r="H133">
-        <v>0.36969999999999997</v>
-      </c>
-      <c r="I133">
-        <v>0.45979999999999999</v>
-      </c>
-      <c r="J133">
-        <v>0.51380000000000003</v>
-      </c>
-      <c r="K133">
-        <v>0.54369999999999996</v>
-      </c>
-      <c r="L133">
-        <v>0.5907</v>
-      </c>
-      <c r="M133">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="N133">
-        <v>0.84970000000000001</v>
-      </c>
-      <c r="O133">
-        <v>1.0996999999999999</v>
-      </c>
-      <c r="P133">
-        <v>0.71850000000000003</v>
-      </c>
-      <c r="Q133">
-        <v>0.64029999999999998</v>
-      </c>
-      <c r="R133">
-        <v>1.0174000000000001</v>
-      </c>
-      <c r="S133">
-        <v>1.2051000000000001</v>
-      </c>
-      <c r="T133">
-        <v>2.3828</v>
-      </c>
-      <c r="U133">
-        <v>2.3828</v>
-      </c>
-      <c r="V133">
-        <v>2.3828</v>
-      </c>
-      <c r="W133">
-        <v>2.3828</v>
-      </c>
-      <c r="X133">
-        <v>2.3828</v>
-      </c>
-      <c r="Y133">
-        <v>2.3828</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>505</v>
-      </c>
-      <c r="B134">
-        <v>4</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="E134">
-        <v>1992</v>
-      </c>
-      <c r="F134">
-        <v>0.1356</v>
-      </c>
-      <c r="G134">
-        <v>0.2316</v>
-      </c>
-      <c r="H134">
-        <v>0.3473</v>
-      </c>
-      <c r="I134">
-        <v>0.4743</v>
-      </c>
-      <c r="J134">
-        <v>0.53339999999999999</v>
-      </c>
-      <c r="K134">
-        <v>0.58169999999999999</v>
-      </c>
-      <c r="L134">
-        <v>0.621</v>
-      </c>
-      <c r="M134">
-        <v>0.64059999999999995</v>
-      </c>
-      <c r="N134">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="O134">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="P134">
-        <v>0.72170000000000001</v>
-      </c>
-      <c r="Q134">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="R134">
-        <v>0.85009999999999997</v>
-      </c>
-      <c r="S134">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="T134">
-        <v>1.0271999999999999</v>
-      </c>
-      <c r="U134">
-        <v>1.0271999999999999</v>
-      </c>
-      <c r="V134">
-        <v>1.0271999999999999</v>
-      </c>
-      <c r="W134">
-        <v>1.0271999999999999</v>
-      </c>
-      <c r="X134">
-        <v>1.0271999999999999</v>
-      </c>
-      <c r="Y134">
-        <v>1.0271999999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>505</v>
-      </c>
-      <c r="B135">
-        <v>4</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>1993</v>
-      </c>
-      <c r="F135">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="G135">
-        <v>0.24859999999999999</v>
-      </c>
-      <c r="H135">
-        <v>0.33839999999999998</v>
-      </c>
-      <c r="I135">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="J135">
-        <v>0.45390000000000003</v>
-      </c>
-      <c r="K135">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="L135">
-        <v>0.50170000000000003</v>
-      </c>
-      <c r="M135">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="N135">
-        <v>0.54910000000000003</v>
-      </c>
-      <c r="O135">
-        <v>0.51</v>
-      </c>
-      <c r="P135">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="Q135">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="R135">
-        <v>0.61350000000000005</v>
-      </c>
-      <c r="S135">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="T135">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="U135">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="V135">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="W135">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="X135">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="Y135">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>505</v>
-      </c>
-      <c r="B136">
-        <v>4</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>1994</v>
-      </c>
-      <c r="F136">
-        <v>0.1191</v>
-      </c>
-      <c r="G136">
-        <v>0.3</v>
-      </c>
-      <c r="H136">
-        <v>0.36259999999999998</v>
-      </c>
-      <c r="I136">
-        <v>0.44690000000000002</v>
-      </c>
-      <c r="J136">
-        <v>0.44729999999999998</v>
-      </c>
-      <c r="K136">
-        <v>0.5262</v>
-      </c>
-      <c r="L136">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M136">
-        <v>0.62180000000000002</v>
-      </c>
-      <c r="N136">
-        <v>0.55979999999999996</v>
-      </c>
-      <c r="O136">
-        <v>0.6341</v>
-      </c>
-      <c r="P136">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="Q136">
-        <v>0.64910000000000001</v>
-      </c>
-      <c r="R136">
-        <v>0.73</v>
-      </c>
-      <c r="S136">
-        <v>0.70130000000000003</v>
-      </c>
-      <c r="T136">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="U136">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="V136">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="W136">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="X136">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="Y136">
-        <v>0.74550000000000005</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>505</v>
-      </c>
-      <c r="B137">
-        <v>4</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1995</v>
-      </c>
-      <c r="F137">
-        <v>0.1108</v>
-      </c>
-      <c r="G137">
-        <v>0.26819999999999999</v>
-      </c>
-      <c r="H137">
-        <v>0.34179999999999999</v>
-      </c>
-      <c r="I137">
-        <v>0.48759999999999998</v>
-      </c>
-      <c r="J137">
-        <v>0.53669999999999995</v>
-      </c>
-      <c r="K137">
-        <v>0.65059999999999996</v>
-      </c>
-      <c r="L137">
-        <v>0.62490000000000001</v>
-      </c>
-      <c r="M137">
-        <v>0.65969999999999995</v>
-      </c>
-      <c r="N137">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="O137">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="P137">
-        <v>0.74450000000000005</v>
-      </c>
-      <c r="Q137">
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="R137">
-        <v>0.91010000000000002</v>
-      </c>
-      <c r="S137">
-        <v>0.6804</v>
-      </c>
-      <c r="T137">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="U137">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="V137">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="W137">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="X137">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="Y137">
-        <v>0.80079999999999996</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>505</v>
-      </c>
-      <c r="B138">
-        <v>4</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>1996</v>
-      </c>
-      <c r="F138">
-        <v>0.1007</v>
-      </c>
-      <c r="G138">
-        <v>0.28760000000000002</v>
-      </c>
-      <c r="H138">
-        <v>0.3982</v>
-      </c>
-      <c r="I138">
-        <v>0.46739999999999998</v>
-      </c>
-      <c r="J138">
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="K138">
-        <v>0.56510000000000005</v>
-      </c>
-      <c r="L138">
-        <v>0.65090000000000003</v>
-      </c>
-      <c r="M138">
-        <v>0.59570000000000001</v>
-      </c>
-      <c r="N138">
-        <v>0.63619999999999999</v>
-      </c>
-      <c r="O138">
-        <v>0.60489999999999999</v>
-      </c>
-      <c r="P138">
-        <v>0.75</v>
-      </c>
-      <c r="Q138">
-        <v>0.67559999999999998</v>
-      </c>
-      <c r="R138">
-        <v>0.81089999999999995</v>
-      </c>
-      <c r="S138">
-        <v>1.4853000000000001</v>
-      </c>
-      <c r="T138">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="U138">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="V138">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="W138">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="X138">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="Y138">
-        <v>0.75090000000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>505</v>
-      </c>
-      <c r="B139">
-        <v>4</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>1997</v>
-      </c>
-      <c r="F139">
-        <v>9.06E-2</v>
-      </c>
-      <c r="G139">
-        <v>0.35549999999999998</v>
-      </c>
-      <c r="H139">
-        <v>0.43219999999999997</v>
-      </c>
-      <c r="I139">
-        <v>0.49309999999999998</v>
-      </c>
-      <c r="J139">
-        <v>0.54759999999999998</v>
-      </c>
-      <c r="K139">
-        <v>0.54530000000000001</v>
-      </c>
-      <c r="L139">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="M139">
-        <v>0.58550000000000002</v>
-      </c>
-      <c r="N139">
-        <v>0.60709999999999997</v>
-      </c>
-      <c r="O139">
-        <v>0.63149999999999995</v>
-      </c>
-      <c r="P139">
-        <v>0.86329999999999996</v>
-      </c>
-      <c r="Q139">
-        <v>0.59460000000000002</v>
-      </c>
-      <c r="R139">
-        <v>0.71179999999999999</v>
-      </c>
-      <c r="S139">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="T139">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="U139">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="V139">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="W139">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="X139">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="Y139">
-        <v>0.86929999999999996</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>505</v>
-      </c>
-      <c r="B140">
-        <v>4</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>1998</v>
-      </c>
-      <c r="F140">
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="G140">
-        <v>0.20910000000000001</v>
-      </c>
-      <c r="H140">
-        <v>0.35389999999999999</v>
-      </c>
-      <c r="I140">
-        <v>0.50409999999999999</v>
-      </c>
-      <c r="J140">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="K140">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="L140">
-        <v>0.64119999999999999</v>
-      </c>
-      <c r="M140">
-        <v>0.6099</v>
-      </c>
-      <c r="N140">
-        <v>0.67689999999999995</v>
-      </c>
-      <c r="O140">
-        <v>0.80779999999999996</v>
-      </c>
-      <c r="P140">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="Q140">
-        <v>0.81</v>
-      </c>
-      <c r="R140">
-        <v>0.77329999999999999</v>
-      </c>
-      <c r="S140">
-        <v>0.751</v>
-      </c>
-      <c r="T140">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="U140">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="V140">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="W140">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="X140">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="Y140">
-        <v>0.79790000000000005</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>505</v>
-      </c>
-      <c r="B141">
-        <v>4</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <v>1999</v>
-      </c>
-      <c r="F141">
-        <v>0.13519999999999999</v>
-      </c>
-      <c r="G141">
-        <v>0.25019999999999998</v>
-      </c>
-      <c r="H141">
-        <v>0.34549999999999997</v>
-      </c>
-      <c r="I141">
-        <v>0.42509999999999998</v>
-      </c>
-      <c r="J141">
-        <v>0.52649999999999997</v>
-      </c>
-      <c r="K141">
-        <v>0.55689999999999995</v>
-      </c>
-      <c r="L141">
-        <v>0.57269999999999999</v>
-      </c>
-      <c r="M141">
-        <v>0.61170000000000002</v>
-      </c>
-      <c r="N141">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="O141">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="P141">
-        <v>0.79890000000000005</v>
-      </c>
-      <c r="Q141">
-        <v>0.75539999999999996</v>
-      </c>
-      <c r="R141">
-        <v>0.87870000000000004</v>
-      </c>
-      <c r="S141">
-        <v>0.73480000000000001</v>
-      </c>
-      <c r="T141">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="U141">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="V141">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="W141">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="X141">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="Y141">
-        <v>0.81869999999999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>505</v>
-      </c>
-      <c r="B142">
-        <v>4</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>2000</v>
-      </c>
-      <c r="F142">
-        <v>0.18990000000000001</v>
-      </c>
-      <c r="G142">
-        <v>0.3216</v>
-      </c>
-      <c r="H142">
-        <v>0.47289999999999999</v>
-      </c>
-      <c r="I142">
-        <v>0.5766</v>
-      </c>
-      <c r="J142">
-        <v>0.65980000000000005</v>
-      </c>
-      <c r="K142">
-        <v>0.71760000000000002</v>
-      </c>
-      <c r="L142">
-        <v>0.72789999999999999</v>
-      </c>
-      <c r="M142">
-        <v>0.75390000000000001</v>
-      </c>
-      <c r="N142">
-        <v>0.83779999999999999</v>
-      </c>
-      <c r="O142">
-        <v>0.81589999999999996</v>
-      </c>
-      <c r="P142">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="Q142">
-        <v>0.85540000000000005</v>
-      </c>
-      <c r="R142">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="S142">
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="T142">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="U142">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="V142">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="W142">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="X142">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="Y142">
-        <v>0.93359999999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>505</v>
-      </c>
-      <c r="B143">
-        <v>4</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>2001</v>
-      </c>
-      <c r="F143">
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="G143">
-        <v>0.28670000000000001</v>
-      </c>
-      <c r="H143">
-        <v>0.48430000000000001</v>
-      </c>
-      <c r="I143">
-        <v>0.65269999999999995</v>
-      </c>
-      <c r="J143">
-        <v>0.66449999999999998</v>
-      </c>
-      <c r="K143">
-        <v>0.74690000000000001</v>
-      </c>
-      <c r="L143">
-        <v>0.8629</v>
-      </c>
-      <c r="M143">
-        <v>0.85550000000000004</v>
-      </c>
-      <c r="N143">
-        <v>0.88019999999999998</v>
-      </c>
-      <c r="O143">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="P143">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="Q143">
-        <v>1.0054000000000001</v>
-      </c>
-      <c r="R143">
-        <v>1.0494000000000001</v>
-      </c>
-      <c r="S143">
-        <v>0.99270000000000003</v>
-      </c>
-      <c r="T143">
-        <v>0.9768</v>
-      </c>
-      <c r="U143">
-        <v>0.9768</v>
-      </c>
-      <c r="V143">
-        <v>0.9768</v>
-      </c>
-      <c r="W143">
-        <v>0.9768</v>
-      </c>
-      <c r="X143">
-        <v>0.9768</v>
-      </c>
-      <c r="Y143">
-        <v>0.9768</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>505</v>
-      </c>
-      <c r="B144">
-        <v>4</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>2002</v>
-      </c>
-      <c r="F144">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="G144">
-        <v>0.35830000000000001</v>
-      </c>
-      <c r="H144">
-        <v>0.45750000000000002</v>
-      </c>
-      <c r="I144">
-        <v>0.60580000000000001</v>
-      </c>
-      <c r="J144">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="K144">
-        <v>0.7581</v>
-      </c>
-      <c r="L144">
-        <v>0.8488</v>
-      </c>
-      <c r="M144">
-        <v>0.97709999999999997</v>
-      </c>
-      <c r="N144">
-        <v>0.93220000000000003</v>
-      </c>
-      <c r="O144">
-        <v>0.91759999999999997</v>
-      </c>
-      <c r="P144">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="Q144">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="R144">
-        <v>0.92359999999999998</v>
-      </c>
-      <c r="S144">
-        <v>1.125</v>
-      </c>
-      <c r="T144">
-        <v>1.0572999999999999</v>
-      </c>
-      <c r="U144">
-        <v>1.0572999999999999</v>
-      </c>
-      <c r="V144">
-        <v>1.0572999999999999</v>
-      </c>
-      <c r="W144">
-        <v>1.0572999999999999</v>
-      </c>
-      <c r="X144">
-        <v>1.0572999999999999</v>
-      </c>
-      <c r="Y144">
-        <v>1.0572999999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>505</v>
-      </c>
-      <c r="B145">
-        <v>4</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <v>2003</v>
-      </c>
-      <c r="F145">
-        <v>0.1</v>
-      </c>
-      <c r="G145">
-        <v>0.25509999999999999</v>
-      </c>
-      <c r="H145">
-        <v>0.4355</v>
-      </c>
-      <c r="I145">
-        <v>0.52249999999999996</v>
-      </c>
-      <c r="J145">
-        <v>0.58850000000000002</v>
-      </c>
-      <c r="K145">
-        <v>0.75690000000000002</v>
-      </c>
-      <c r="L145">
-        <v>0.6915</v>
-      </c>
-      <c r="M145">
-        <v>0.74690000000000001</v>
-      </c>
-      <c r="N145">
-        <v>0.8246</v>
-      </c>
-      <c r="O145">
-        <v>0.76919999999999999</v>
-      </c>
-      <c r="P145">
-        <v>0.88870000000000005</v>
-      </c>
-      <c r="Q145">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="R145">
-        <v>0.78939999999999999</v>
-      </c>
-      <c r="S145">
-        <v>0.84140000000000004</v>
-      </c>
-      <c r="T145">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="U145">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="V145">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="W145">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="X145">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="Y145">
-        <v>0.99650000000000005</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>505</v>
-      </c>
-      <c r="B146">
-        <v>4</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146">
-        <v>2004</v>
-      </c>
-      <c r="F146">
-        <v>0.1081</v>
-      </c>
-      <c r="G146">
-        <v>0.2</v>
-      </c>
-      <c r="H146">
-        <v>0.436</v>
-      </c>
-      <c r="I146">
-        <v>0.48070000000000002</v>
-      </c>
-      <c r="J146">
-        <v>0.53190000000000004</v>
-      </c>
-      <c r="K146">
-        <v>0.64780000000000004</v>
-      </c>
-      <c r="L146">
-        <v>0.70679999999999998</v>
-      </c>
-      <c r="M146">
-        <v>0.65790000000000004</v>
-      </c>
-      <c r="N146">
-        <v>0.70940000000000003</v>
-      </c>
-      <c r="O146">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="P146">
-        <v>0.85809999999999997</v>
-      </c>
-      <c r="Q146">
-        <v>0.77149999999999996</v>
-      </c>
-      <c r="R146">
-        <v>0.97040000000000004</v>
-      </c>
-      <c r="S146">
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="T146">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="U146">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="V146">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="W146">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="X146">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="Y146">
-        <v>0.89590000000000003</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>505</v>
-      </c>
-      <c r="B147">
-        <v>4</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>2005</v>
-      </c>
-      <c r="F147">
-        <v>0.1162</v>
-      </c>
-      <c r="G147">
-        <v>0.26029999999999998</v>
-      </c>
-      <c r="H147">
-        <v>0.43109999999999998</v>
-      </c>
-      <c r="I147">
-        <v>0.50860000000000005</v>
-      </c>
-      <c r="J147">
-        <v>0.5393</v>
-      </c>
-      <c r="K147">
-        <v>0.56820000000000004</v>
-      </c>
-      <c r="L147">
-        <v>0.63360000000000005</v>
-      </c>
-      <c r="M147">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="N147">
-        <v>0.70269999999999999</v>
-      </c>
-      <c r="O147">
-        <v>0.79620000000000002</v>
-      </c>
-      <c r="P147">
-        <v>0.81040000000000001</v>
-      </c>
-      <c r="Q147">
-        <v>0.81089999999999995</v>
-      </c>
-      <c r="R147">
-        <v>0.76019999999999999</v>
-      </c>
-      <c r="S147">
-        <v>1.1449</v>
-      </c>
-      <c r="T147">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="U147">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="V147">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="W147">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="X147">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="Y147">
-        <v>0.96779999999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>505</v>
-      </c>
-      <c r="B148">
-        <v>4</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <v>2006</v>
-      </c>
-      <c r="F148">
-        <v>0.13239999999999999</v>
-      </c>
-      <c r="G148">
-        <v>0.3831</v>
-      </c>
-      <c r="H148">
-        <v>0.45750000000000002</v>
-      </c>
-      <c r="I148">
-        <v>0.53410000000000002</v>
-      </c>
-      <c r="J148">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="K148">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="L148">
-        <v>0.59789999999999999</v>
-      </c>
-      <c r="M148">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="N148">
-        <v>0.69969999999999999</v>
-      </c>
-      <c r="O148">
-        <v>0.72589999999999999</v>
-      </c>
-      <c r="P148">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="Q148">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="R148">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="S148">
-        <v>0.63990000000000002</v>
-      </c>
-      <c r="T148">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="U148">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="V148">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="W148">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="X148">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="Y148">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>505</v>
-      </c>
-      <c r="B149">
-        <v>4</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <v>2007</v>
-      </c>
-      <c r="F149">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="G149">
-        <v>0.22720000000000001</v>
-      </c>
-      <c r="H149">
-        <v>0.37759999999999999</v>
-      </c>
-      <c r="I149">
-        <v>0.53520000000000001</v>
-      </c>
-      <c r="J149">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="K149">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="L149">
-        <v>0.63280000000000003</v>
-      </c>
-      <c r="M149">
-        <v>0.64749999999999996</v>
-      </c>
-      <c r="N149">
-        <v>0.70550000000000002</v>
-      </c>
-      <c r="O149">
-        <v>0.77229999999999999</v>
-      </c>
-      <c r="P149">
-        <v>0.76270000000000004</v>
-      </c>
-      <c r="Q149">
-        <v>0.81369999999999998</v>
-      </c>
-      <c r="R149">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="S149">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="T149">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="U149">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="V149">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="W149">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="X149">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="Y149">
-        <v>0.86980000000000002</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>505</v>
-      </c>
-      <c r="B150">
-        <v>4</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150">
-        <v>2008</v>
-      </c>
-      <c r="F150">
-        <v>0.1346</v>
-      </c>
-      <c r="G150">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="H150">
-        <v>0.40789999999999998</v>
-      </c>
-      <c r="I150">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="J150">
-        <v>0.63649999999999995</v>
-      </c>
-      <c r="K150">
-        <v>0.6865</v>
-      </c>
-      <c r="L150">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="M150">
-        <v>0.70979999999999999</v>
-      </c>
-      <c r="N150">
-        <v>0.72109999999999996</v>
-      </c>
-      <c r="O150">
-        <v>0.74880000000000002</v>
-      </c>
-      <c r="P150">
-        <v>0.80730000000000002</v>
-      </c>
-      <c r="Q150">
-        <v>0.84830000000000005</v>
-      </c>
-      <c r="R150">
-        <v>0.77549999999999997</v>
-      </c>
-      <c r="S150">
-        <v>0.88339999999999996</v>
-      </c>
-      <c r="T150">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="U150">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="V150">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="W150">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="X150">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="Y150">
-        <v>0.83320000000000005</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>505</v>
-      </c>
-      <c r="B151">
-        <v>4</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <v>2009</v>
-      </c>
-      <c r="F151">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="G151">
-        <v>0.24479999999999999</v>
-      </c>
-      <c r="H151">
-        <v>0.34310000000000002</v>
-      </c>
-      <c r="I151">
-        <v>0.47120000000000001</v>
-      </c>
-      <c r="J151">
-        <v>0.6371</v>
-      </c>
-      <c r="K151">
-        <v>0.67020000000000002</v>
-      </c>
-      <c r="L151">
-        <v>0.69420000000000004</v>
-      </c>
-      <c r="M151">
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="N151">
-        <v>0.8226</v>
-      </c>
-      <c r="O151">
-        <v>0.76739999999999997</v>
-      </c>
-      <c r="P151">
-        <v>0.81389999999999996</v>
-      </c>
-      <c r="Q151">
-        <v>1.0146999999999999</v>
-      </c>
-      <c r="R151">
-        <v>0.85029999999999994</v>
-      </c>
-      <c r="S151">
-        <v>0.95820000000000005</v>
-      </c>
-      <c r="T151">
-        <v>1.0334000000000001</v>
-      </c>
-      <c r="U151">
-        <v>1.0334000000000001</v>
-      </c>
-      <c r="V151">
-        <v>1.0334000000000001</v>
-      </c>
-      <c r="W151">
-        <v>1.0334000000000001</v>
-      </c>
-      <c r="X151">
-        <v>1.0334000000000001</v>
-      </c>
-      <c r="Y151">
-        <v>1.0334000000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>505</v>
-      </c>
-      <c r="B152">
-        <v>4</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <v>2010</v>
-      </c>
-      <c r="F152">
-        <v>0.1089</v>
-      </c>
-      <c r="G152">
-        <v>0.2326</v>
-      </c>
-      <c r="H152">
-        <v>0.2918</v>
-      </c>
-      <c r="I152">
-        <v>0.43319999999999997</v>
-      </c>
-      <c r="J152">
-        <v>0.5302</v>
-      </c>
-      <c r="K152">
-        <v>0.65820000000000001</v>
-      </c>
-      <c r="L152">
-        <v>0.83489999999999998</v>
-      </c>
-      <c r="M152">
-        <v>1.0828</v>
-      </c>
-      <c r="N152">
-        <v>1.0276000000000001</v>
-      </c>
-      <c r="O152">
-        <v>0.95820000000000005</v>
-      </c>
-      <c r="P152">
-        <v>0.87629999999999997</v>
-      </c>
-      <c r="Q152">
-        <v>0.85240000000000005</v>
-      </c>
-      <c r="R152">
-        <v>1.1253</v>
-      </c>
-      <c r="S152">
-        <v>0.72</v>
-      </c>
-      <c r="T152">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="U152">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="V152">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="W152">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="X152">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="Y152">
-        <v>0.90210000000000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>505</v>
-      </c>
-      <c r="B153">
-        <v>4</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153">
-        <v>2011</v>
-      </c>
-      <c r="F153">
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="G153">
-        <v>0.2457</v>
-      </c>
-      <c r="H153">
-        <v>0.32190000000000002</v>
-      </c>
-      <c r="I153">
-        <v>0.38669999999999999</v>
-      </c>
-      <c r="J153">
-        <v>0.51419999999999999</v>
-      </c>
-      <c r="K153">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="L153">
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="M153">
-        <v>0.85340000000000005</v>
-      </c>
-      <c r="N153">
-        <v>0.9294</v>
-      </c>
-      <c r="O153">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="P153">
-        <v>1.0749</v>
-      </c>
-      <c r="Q153">
-        <v>1.0588</v>
-      </c>
-      <c r="R153">
-        <v>1.0279</v>
-      </c>
-      <c r="S153">
-        <v>1.0557000000000001</v>
-      </c>
-      <c r="T153">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="U153">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="V153">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="W153">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="X153">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="Y153">
-        <v>0.92120000000000002</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>505</v>
-      </c>
-      <c r="B154">
-        <v>4</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154">
-        <v>2012</v>
-      </c>
-      <c r="F154">
-        <v>0.129</v>
-      </c>
-      <c r="G154">
-        <v>0.2145</v>
-      </c>
-      <c r="H154">
-        <v>0.35360000000000003</v>
-      </c>
-      <c r="I154">
-        <v>0.40939999999999999</v>
-      </c>
-      <c r="J154">
-        <v>0.4889</v>
-      </c>
-      <c r="K154">
-        <v>0.65620000000000001</v>
-      </c>
-      <c r="L154">
-        <v>0.69069999999999998</v>
-      </c>
-      <c r="M154">
-        <v>0.77749999999999997</v>
-      </c>
-      <c r="N154">
-        <v>0.90720000000000001</v>
-      </c>
-      <c r="O154">
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="P154">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="Q154">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="R154">
-        <v>0.9889</v>
-      </c>
-      <c r="S154">
-        <v>0.99239999999999995</v>
-      </c>
-      <c r="T154">
-        <v>0.9425</v>
-      </c>
-      <c r="U154">
-        <v>0.9425</v>
-      </c>
-      <c r="V154">
-        <v>0.9425</v>
-      </c>
-      <c r="W154">
-        <v>0.9425</v>
-      </c>
-      <c r="X154">
-        <v>0.9425</v>
-      </c>
-      <c r="Y154">
-        <v>0.9425</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>505</v>
-      </c>
-      <c r="B155">
-        <v>4</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="E155">
-        <v>2013</v>
-      </c>
-      <c r="F155">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="G155">
-        <v>0.28739999999999999</v>
-      </c>
-      <c r="H155">
-        <v>0.35949999999999999</v>
-      </c>
-      <c r="I155">
-        <v>0.46970000000000001</v>
-      </c>
-      <c r="J155">
-        <v>0.51039999999999996</v>
-      </c>
-      <c r="K155">
-        <v>0.626</v>
-      </c>
-      <c r="L155">
-        <v>0.71650000000000003</v>
-      </c>
-      <c r="M155">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="N155">
-        <v>0.83130000000000004</v>
-      </c>
-      <c r="O155">
-        <v>0.99890000000000001</v>
-      </c>
-      <c r="P155">
-        <v>1.0751999999999999</v>
-      </c>
-      <c r="Q155">
-        <v>1.2302999999999999</v>
-      </c>
-      <c r="R155">
-        <v>1.1187</v>
-      </c>
-      <c r="S155">
-        <v>1.0682</v>
-      </c>
-      <c r="T155">
-        <v>1.0545</v>
-      </c>
-      <c r="U155">
-        <v>1.0545</v>
-      </c>
-      <c r="V155">
-        <v>1.0545</v>
-      </c>
-      <c r="W155">
-        <v>1.0545</v>
-      </c>
-      <c r="X155">
-        <v>1.0545</v>
-      </c>
-      <c r="Y155">
-        <v>1.0545</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>505</v>
-      </c>
-      <c r="B156">
-        <v>4</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <v>2014</v>
-      </c>
-      <c r="F156">
-        <v>0.1028</v>
-      </c>
-      <c r="G156">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="H156">
-        <v>0.46860000000000002</v>
-      </c>
-      <c r="I156">
-        <v>0.47970000000000002</v>
-      </c>
-      <c r="J156">
-        <v>0.53620000000000001</v>
-      </c>
-      <c r="K156">
-        <v>0.57410000000000005</v>
-      </c>
-      <c r="L156">
-        <v>0.61980000000000002</v>
-      </c>
-      <c r="M156">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="N156">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="O156">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="P156">
-        <v>1.1645000000000001</v>
-      </c>
-      <c r="Q156">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="R156">
-        <v>0.94910000000000005</v>
-      </c>
-      <c r="S156">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="T156">
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="U156">
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="V156">
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="W156">
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="X156">
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="Y156">
-        <v>1.0579000000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>505</v>
-      </c>
-      <c r="B157">
-        <v>4</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <v>2015</v>
-      </c>
-      <c r="F157">
-        <v>7.5899999999999995E-2</v>
-      </c>
-      <c r="G157">
-        <v>0.24709999999999999</v>
-      </c>
-      <c r="H157">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="I157">
-        <v>0.44450000000000001</v>
-      </c>
-      <c r="J157">
-        <v>0.4708</v>
-      </c>
-      <c r="K157">
-        <v>0.55310000000000004</v>
-      </c>
-      <c r="L157">
-        <v>0.5948</v>
-      </c>
-      <c r="M157">
-        <v>0.67490000000000006</v>
-      </c>
-      <c r="N157">
-        <v>0.68789999999999996</v>
-      </c>
-      <c r="O157">
-        <v>0.71789999999999998</v>
-      </c>
-      <c r="P157">
-        <v>0.8337</v>
-      </c>
-      <c r="Q157">
-        <v>0.95230000000000004</v>
-      </c>
-      <c r="R157">
-        <v>1.0185</v>
-      </c>
-      <c r="S157">
-        <v>1.0892999999999999</v>
-      </c>
-      <c r="T157">
-        <v>1.2493000000000001</v>
-      </c>
-      <c r="U157">
-        <v>1.2493000000000001</v>
-      </c>
-      <c r="V157">
-        <v>1.2493000000000001</v>
-      </c>
-      <c r="W157">
-        <v>1.2493000000000001</v>
-      </c>
-      <c r="X157">
-        <v>1.2493000000000001</v>
-      </c>
-      <c r="Y157">
-        <v>1.2493000000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>505</v>
-      </c>
-      <c r="B158">
-        <v>4</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <v>2016</v>
-      </c>
-      <c r="F158">
-        <v>0.1653</v>
-      </c>
-      <c r="G158">
-        <v>0.24390000000000001</v>
-      </c>
-      <c r="H158">
-        <v>0.3831</v>
-      </c>
-      <c r="I158">
-        <v>0.41589999999999999</v>
-      </c>
-      <c r="J158">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="K158">
-        <v>0.46379999999999999</v>
-      </c>
-      <c r="L158">
-        <v>0.5141</v>
-      </c>
-      <c r="M158">
-        <v>0.51639999999999997</v>
-      </c>
-      <c r="N158">
-        <v>0.51270000000000004</v>
-      </c>
-      <c r="O158">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="P158">
-        <v>0.7198</v>
-      </c>
-      <c r="Q158">
-        <v>0.5948</v>
-      </c>
-      <c r="R158">
-        <v>0.77559999999999996</v>
-      </c>
-      <c r="S158">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="T158">
-        <v>1.5802</v>
-      </c>
-      <c r="U158">
-        <v>1.5802</v>
-      </c>
-      <c r="V158">
-        <v>1.5802</v>
-      </c>
-      <c r="W158">
-        <v>1.5802</v>
-      </c>
-      <c r="X158">
-        <v>1.5802</v>
-      </c>
-      <c r="Y158">
-        <v>1.5802</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>505</v>
-      </c>
-      <c r="B159">
-        <v>4</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159">
-        <v>2017</v>
-      </c>
-      <c r="F159">
-        <v>0.14050000000000001</v>
-      </c>
-      <c r="G159">
-        <v>0.3115</v>
-      </c>
-      <c r="H159">
-        <v>0.40110000000000001</v>
-      </c>
-      <c r="I159">
-        <v>0.47</v>
-      </c>
-      <c r="J159">
-        <v>0.5101</v>
-      </c>
-      <c r="K159">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="L159">
-        <v>0.54210000000000003</v>
-      </c>
-      <c r="M159">
-        <v>0.57120000000000004</v>
-      </c>
-      <c r="N159">
-        <v>0.61809999999999998</v>
-      </c>
-      <c r="O159">
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="P159">
-        <v>0.68969999999999998</v>
-      </c>
-      <c r="Q159">
-        <v>0.75539999999999996</v>
-      </c>
-      <c r="R159">
-        <v>0.75109999999999999</v>
-      </c>
-      <c r="S159">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="T159">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="U159">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="V159">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="W159">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="X159">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="Y159">
-        <v>0.89190000000000003</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>505</v>
-      </c>
-      <c r="B160">
-        <v>4</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160">
-        <v>2018</v>
-      </c>
-      <c r="F160">
-        <v>0.187</v>
-      </c>
-      <c r="G160">
-        <v>0.35439999999999999</v>
-      </c>
-      <c r="H160">
-        <v>0.46329999999999999</v>
-      </c>
-      <c r="I160">
-        <v>0.50290000000000001</v>
-      </c>
-      <c r="J160">
-        <v>0.53569999999999995</v>
-      </c>
-      <c r="K160">
-        <v>0.55179999999999996</v>
-      </c>
-      <c r="L160">
-        <v>0.61739999999999995</v>
-      </c>
-      <c r="M160">
-        <v>0.58960000000000001</v>
-      </c>
-      <c r="N160">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="O160">
-        <v>0.6431</v>
-      </c>
-      <c r="P160">
-        <v>0.67610000000000003</v>
-      </c>
-      <c r="Q160">
-        <v>0.68869999999999998</v>
-      </c>
-      <c r="R160">
-        <v>0.7238</v>
-      </c>
-      <c r="S160">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="T160">
-        <v>1.07</v>
-      </c>
-      <c r="U160">
-        <v>1.07</v>
-      </c>
-      <c r="V160">
-        <v>1.07</v>
-      </c>
-      <c r="W160">
-        <v>1.07</v>
-      </c>
-      <c r="X160">
-        <v>1.07</v>
-      </c>
-      <c r="Y160">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>505</v>
-      </c>
-      <c r="B161">
-        <v>4</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="E161">
-        <v>2019</v>
-      </c>
-      <c r="F161">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="G161">
-        <v>0.28160000000000002</v>
-      </c>
-      <c r="H161">
-        <v>0.441</v>
-      </c>
-      <c r="I161">
-        <v>0.4844</v>
-      </c>
-      <c r="J161">
-        <v>0.52280000000000004</v>
-      </c>
-      <c r="K161">
-        <v>0.53979999999999995</v>
-      </c>
-      <c r="L161">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="M161">
-        <v>0.62250000000000005</v>
-      </c>
-      <c r="N161">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="O161">
-        <v>0.63070000000000004</v>
-      </c>
-      <c r="P161">
-        <v>0.68510000000000004</v>
-      </c>
-      <c r="Q161">
-        <v>0.64549999999999996</v>
-      </c>
-      <c r="R161">
-        <v>0.84160000000000001</v>
-      </c>
-      <c r="S161">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="T161">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="U161">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="V161">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="W161">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="X161">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="Y161">
-        <v>0.79339999999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>506</v>
-      </c>
-      <c r="B162">
-        <v>5</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162">
-        <v>1980</v>
-      </c>
-      <c r="F162">
-        <v>0.08</v>
-      </c>
-      <c r="G162">
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="H162">
-        <v>0.45290000000000002</v>
-      </c>
-      <c r="I162">
-        <v>0.39219999999999999</v>
-      </c>
-      <c r="J162">
-        <v>0.4904</v>
-      </c>
-      <c r="K162">
-        <v>0.51659999999999995</v>
-      </c>
-      <c r="L162">
-        <v>0.65539999999999998</v>
-      </c>
-      <c r="M162">
-        <v>0.71360000000000001</v>
-      </c>
-      <c r="N162">
-        <v>0.874</v>
-      </c>
-      <c r="O162">
-        <v>1.0626</v>
-      </c>
-      <c r="P162">
-        <v>1.1623000000000001</v>
-      </c>
-      <c r="Q162">
-        <v>1.2898000000000001</v>
-      </c>
-      <c r="R162">
-        <v>1.3001</v>
-      </c>
-      <c r="S162">
-        <v>1.2699</v>
-      </c>
-      <c r="T162">
-        <v>1.3960999999999999</v>
-      </c>
-      <c r="U162">
-        <v>1.3960999999999999</v>
-      </c>
-      <c r="V162">
-        <v>1.3960999999999999</v>
-      </c>
-      <c r="W162">
-        <v>1.3960999999999999</v>
-      </c>
-      <c r="X162">
-        <v>1.3960999999999999</v>
-      </c>
-      <c r="Y162">
-        <v>1.3960999999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>506</v>
-      </c>
-      <c r="B163">
-        <v>5</v>
-      </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-      <c r="E163">
-        <v>1981</v>
-      </c>
-      <c r="F163">
-        <v>0.1074</v>
-      </c>
-      <c r="G163">
-        <v>0.2137</v>
-      </c>
-      <c r="H163">
-        <v>0.3422</v>
-      </c>
-      <c r="I163">
-        <v>0.52639999999999998</v>
-      </c>
-      <c r="J163">
-        <v>0.39329999999999998</v>
-      </c>
-      <c r="K163">
-        <v>0.52539999999999998</v>
-      </c>
-      <c r="L163">
-        <v>0.54620000000000002</v>
-      </c>
-      <c r="M163">
-        <v>0.74639999999999995</v>
-      </c>
-      <c r="N163">
-        <v>0.72040000000000004</v>
-      </c>
-      <c r="O163">
-        <v>0.82310000000000005</v>
-      </c>
-      <c r="P163">
-        <v>1.0412999999999999</v>
-      </c>
-      <c r="Q163">
-        <v>1.0989</v>
-      </c>
-      <c r="R163">
-        <v>1.3449</v>
-      </c>
-      <c r="S163">
-        <v>1.4925999999999999</v>
-      </c>
-      <c r="T163">
-        <v>1.2128000000000001</v>
-      </c>
-      <c r="U163">
-        <v>1.2128000000000001</v>
-      </c>
-      <c r="V163">
-        <v>1.2128000000000001</v>
-      </c>
-      <c r="W163">
-        <v>1.2128000000000001</v>
-      </c>
-      <c r="X163">
-        <v>1.2128000000000001</v>
-      </c>
-      <c r="Y163">
-        <v>1.2128000000000001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>506</v>
-      </c>
-      <c r="B164">
-        <v>5</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-      <c r="E164">
-        <v>1982</v>
-      </c>
-      <c r="F164">
-        <v>0.1181</v>
-      </c>
-      <c r="G164">
-        <v>0.2465</v>
-      </c>
-      <c r="H164">
-        <v>0.33360000000000001</v>
-      </c>
-      <c r="I164">
-        <v>0.30969999999999998</v>
-      </c>
-      <c r="J164">
-        <v>0.54959999999999998</v>
-      </c>
-      <c r="K164">
-        <v>0.39560000000000001</v>
-      </c>
-      <c r="L164">
-        <v>0.52749999999999997</v>
-      </c>
-      <c r="M164">
-        <v>0.56289999999999996</v>
-      </c>
-      <c r="N164">
-        <v>0.76060000000000005</v>
-      </c>
-      <c r="O164">
-        <v>0.68369999999999997</v>
-      </c>
-      <c r="P164">
-        <v>0.85389999999999999</v>
-      </c>
-      <c r="Q164">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="R164">
-        <v>0.87929999999999997</v>
-      </c>
-      <c r="S164">
-        <v>1.0185999999999999</v>
-      </c>
-      <c r="T164">
-        <v>1.1693</v>
-      </c>
-      <c r="U164">
-        <v>1.1693</v>
-      </c>
-      <c r="V164">
-        <v>1.1693</v>
-      </c>
-      <c r="W164">
-        <v>1.1693</v>
-      </c>
-      <c r="X164">
-        <v>1.1693</v>
-      </c>
-      <c r="Y164">
-        <v>1.1693</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>506</v>
-      </c>
-      <c r="B165">
-        <v>5</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-      <c r="E165">
-        <v>1983</v>
-      </c>
-      <c r="F165">
-        <v>0.12870000000000001</v>
-      </c>
-      <c r="G165">
-        <v>0.13569999999999999</v>
-      </c>
-      <c r="H165">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="I165">
-        <v>0.36940000000000001</v>
-      </c>
-      <c r="J165">
-        <v>0.32769999999999999</v>
-      </c>
-      <c r="K165">
-        <v>0.52</v>
-      </c>
-      <c r="L165">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="M165">
-        <v>0.6179</v>
-      </c>
-      <c r="N165">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="O165">
-        <v>0.88</v>
-      </c>
-      <c r="P165">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="Q165">
-        <v>1.0356000000000001</v>
-      </c>
-      <c r="R165">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="S165">
-        <v>1.3217000000000001</v>
-      </c>
-      <c r="T165">
-        <v>1.4823</v>
-      </c>
-      <c r="U165">
-        <v>1.4823</v>
-      </c>
-      <c r="V165">
-        <v>1.4823</v>
-      </c>
-      <c r="W165">
-        <v>1.4823</v>
-      </c>
-      <c r="X165">
-        <v>1.4823</v>
-      </c>
-      <c r="Y165">
-        <v>1.4823</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>506</v>
-      </c>
-      <c r="B166">
-        <v>5</v>
-      </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166">
-        <v>1984</v>
-      </c>
-      <c r="F166">
-        <v>0.13150000000000001</v>
-      </c>
-      <c r="G166">
-        <v>0.16420000000000001</v>
-      </c>
-      <c r="H166">
-        <v>0.24929999999999999</v>
-      </c>
-      <c r="I166">
-        <v>0.43840000000000001</v>
-      </c>
-      <c r="J166">
-        <v>0.4113</v>
-      </c>
-      <c r="K166">
-        <v>0.43519999999999998</v>
-      </c>
-      <c r="L166">
-        <v>0.58720000000000006</v>
-      </c>
-      <c r="M166">
-        <v>0.58020000000000005</v>
-      </c>
-      <c r="N166">
-        <v>0.67579999999999996</v>
-      </c>
-      <c r="O166">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="P166">
-        <v>0.95130000000000003</v>
-      </c>
-      <c r="Q166">
-        <v>1.1364000000000001</v>
-      </c>
-      <c r="R166">
-        <v>1.0258</v>
-      </c>
-      <c r="S166">
-        <v>1.2806999999999999</v>
-      </c>
-      <c r="T166">
-        <v>1.88</v>
-      </c>
-      <c r="U166">
-        <v>1.88</v>
-      </c>
-      <c r="V166">
-        <v>1.88</v>
-      </c>
-      <c r="W166">
-        <v>1.88</v>
-      </c>
-      <c r="X166">
-        <v>1.88</v>
-      </c>
-      <c r="Y166">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>506</v>
-      </c>
-      <c r="B167">
-        <v>5</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-      <c r="E167">
-        <v>1985</v>
-      </c>
-      <c r="F167">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="G167">
-        <v>0.22969999999999999</v>
-      </c>
-      <c r="H167">
-        <v>0.26790000000000003</v>
-      </c>
-      <c r="I167">
-        <v>0.44140000000000001</v>
-      </c>
-      <c r="J167">
-        <v>0.54959999999999998</v>
-      </c>
-      <c r="K167">
-        <v>0.5474</v>
-      </c>
-      <c r="L167">
-        <v>0.60170000000000001</v>
-      </c>
-      <c r="M167">
-        <v>0.74519999999999997</v>
-      </c>
-      <c r="N167">
-        <v>0.69330000000000003</v>
-      </c>
-      <c r="O167">
-        <v>0.72309999999999997</v>
-      </c>
-      <c r="P167">
-        <v>0.85840000000000005</v>
-      </c>
-      <c r="Q167">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="R167">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="S167">
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="T167">
-        <v>1.1216999999999999</v>
-      </c>
-      <c r="U167">
-        <v>1.1216999999999999</v>
-      </c>
-      <c r="V167">
-        <v>1.1216999999999999</v>
-      </c>
-      <c r="W167">
-        <v>1.1216999999999999</v>
-      </c>
-      <c r="X167">
-        <v>1.1216999999999999</v>
-      </c>
-      <c r="Y167">
-        <v>1.1216999999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>506</v>
-      </c>
-      <c r="B168">
-        <v>5</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-      <c r="E168">
-        <v>1986</v>
-      </c>
-      <c r="F168">
-        <v>0.1555</v>
-      </c>
-      <c r="G168">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="H168">
-        <v>0.29060000000000002</v>
-      </c>
-      <c r="I168">
-        <v>0.3024</v>
-      </c>
-      <c r="J168">
-        <v>0.3735</v>
-      </c>
-      <c r="K168">
-        <v>0.54259999999999997</v>
-      </c>
-      <c r="L168">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="M168">
-        <v>0.6421</v>
-      </c>
-      <c r="N168">
-        <v>0.82089999999999996</v>
-      </c>
-      <c r="O168">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="P168">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="Q168">
-        <v>1.19</v>
-      </c>
-      <c r="R168">
-        <v>1.3736999999999999</v>
-      </c>
-      <c r="S168">
-        <v>1.68</v>
-      </c>
-      <c r="T168">
-        <v>1.6142000000000001</v>
-      </c>
-      <c r="U168">
-        <v>1.6142000000000001</v>
-      </c>
-      <c r="V168">
-        <v>1.6142000000000001</v>
-      </c>
-      <c r="W168">
-        <v>1.6142000000000001</v>
-      </c>
-      <c r="X168">
-        <v>1.6142000000000001</v>
-      </c>
-      <c r="Y168">
-        <v>1.6142000000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>506</v>
-      </c>
-      <c r="B169">
-        <v>5</v>
-      </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169">
-        <v>1</v>
-      </c>
-      <c r="E169">
-        <v>1987</v>
-      </c>
-      <c r="F169">
-        <v>0.14779999999999999</v>
-      </c>
-      <c r="G169">
-        <v>0.13880000000000001</v>
-      </c>
-      <c r="H169">
-        <v>0.379</v>
-      </c>
-      <c r="I169">
-        <v>0.27860000000000001</v>
-      </c>
-      <c r="J169">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="K169">
-        <v>0.36209999999999998</v>
-      </c>
-      <c r="L169">
-        <v>0.57750000000000001</v>
-      </c>
-      <c r="M169">
-        <v>0.59750000000000003</v>
-      </c>
-      <c r="N169">
-        <v>0.63690000000000002</v>
-      </c>
-      <c r="O169">
-        <v>0.76380000000000003</v>
-      </c>
-      <c r="P169">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="Q169">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="R169">
-        <v>1.2406999999999999</v>
-      </c>
-      <c r="S169">
-        <v>1.2031000000000001</v>
-      </c>
-      <c r="T169">
-        <v>1.4157</v>
-      </c>
-      <c r="U169">
-        <v>1.4157</v>
-      </c>
-      <c r="V169">
-        <v>1.4157</v>
-      </c>
-      <c r="W169">
-        <v>1.4157</v>
-      </c>
-      <c r="X169">
-        <v>1.4157</v>
-      </c>
-      <c r="Y169">
-        <v>1.4157</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>506</v>
-      </c>
-      <c r="B170">
-        <v>5</v>
-      </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
-      <c r="E170">
-        <v>1988</v>
-      </c>
-      <c r="F170">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G170">
-        <v>0.187</v>
-      </c>
-      <c r="H170">
-        <v>0.31890000000000002</v>
-      </c>
-      <c r="I170">
-        <v>0.47110000000000002</v>
-      </c>
-      <c r="J170">
-        <v>0.36890000000000001</v>
-      </c>
-      <c r="K170">
-        <v>0.37309999999999999</v>
-      </c>
-      <c r="L170">
-        <v>0.51629999999999998</v>
-      </c>
-      <c r="M170">
-        <v>0.64710000000000001</v>
-      </c>
-      <c r="N170">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="O170">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="P170">
-        <v>0.92110000000000003</v>
-      </c>
-      <c r="Q170">
-        <v>1.0924</v>
-      </c>
-      <c r="R170">
-        <v>1.0225</v>
-      </c>
-      <c r="S170">
-        <v>1.45</v>
-      </c>
-      <c r="T170">
-        <v>1.4537</v>
-      </c>
-      <c r="U170">
-        <v>1.4537</v>
-      </c>
-      <c r="V170">
-        <v>1.4537</v>
-      </c>
-      <c r="W170">
-        <v>1.4537</v>
-      </c>
-      <c r="X170">
-        <v>1.4537</v>
-      </c>
-      <c r="Y170">
-        <v>1.4537</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>506</v>
-      </c>
-      <c r="B171">
-        <v>5</v>
-      </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
-      <c r="E171">
-        <v>1989</v>
-      </c>
-      <c r="F171">
-        <v>0.1389</v>
-      </c>
-      <c r="G171">
-        <v>0.2737</v>
-      </c>
-      <c r="H171">
-        <v>0.30470000000000003</v>
-      </c>
-      <c r="I171">
-        <v>0.29310000000000003</v>
-      </c>
-      <c r="J171">
-        <v>0.51339999999999997</v>
-      </c>
-      <c r="K171">
-        <v>0.43859999999999999</v>
-      </c>
-      <c r="L171">
-        <v>0.40639999999999998</v>
-      </c>
-      <c r="M171">
-        <v>0.51670000000000005</v>
-      </c>
-      <c r="N171">
-        <v>0.62629999999999997</v>
-      </c>
-      <c r="O171">
-        <v>0.66110000000000002</v>
-      </c>
-      <c r="P171">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="Q171">
-        <v>0.87580000000000002</v>
-      </c>
-      <c r="R171">
-        <v>0.66859999999999997</v>
-      </c>
-      <c r="S171">
-        <v>0.82820000000000005</v>
-      </c>
-      <c r="T171">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="U171">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="V171">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="W171">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="X171">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="Y171">
-        <v>1.1264000000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>506</v>
-      </c>
-      <c r="B172">
-        <v>5</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172">
-        <v>1</v>
-      </c>
-      <c r="E172">
-        <v>1990</v>
-      </c>
-      <c r="F172">
-        <v>0.13780000000000001</v>
-      </c>
-      <c r="G172">
-        <v>0.24349999999999999</v>
-      </c>
-      <c r="H172">
-        <v>0.35060000000000002</v>
-      </c>
-      <c r="I172">
-        <v>0.3906</v>
-      </c>
-      <c r="J172">
-        <v>0.5111</v>
-      </c>
-      <c r="K172">
-        <v>0.54620000000000002</v>
-      </c>
-      <c r="L172">
-        <v>0.60760000000000003</v>
-      </c>
-      <c r="M172">
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="N172">
-        <v>0.53</v>
-      </c>
-      <c r="O172">
-        <v>0.76970000000000005</v>
-      </c>
-      <c r="P172">
-        <v>0.83120000000000005</v>
-      </c>
-      <c r="Q172">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R172">
-        <v>1.1847000000000001</v>
-      </c>
-      <c r="S172">
-        <v>1.0165999999999999</v>
-      </c>
-      <c r="T172">
-        <v>1.4668000000000001</v>
-      </c>
-      <c r="U172">
-        <v>1.4668000000000001</v>
-      </c>
-      <c r="V172">
-        <v>1.4668000000000001</v>
-      </c>
-      <c r="W172">
-        <v>1.4668000000000001</v>
-      </c>
-      <c r="X172">
-        <v>1.4668000000000001</v>
-      </c>
-      <c r="Y172">
-        <v>1.4668000000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>506</v>
-      </c>
-      <c r="B173">
-        <v>5</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-      <c r="E173">
-        <v>1991</v>
-      </c>
-      <c r="F173">
-        <v>0.13669999999999999</v>
-      </c>
-      <c r="G173">
-        <v>0.27539999999999998</v>
-      </c>
-      <c r="H173">
-        <v>0.36969999999999997</v>
-      </c>
-      <c r="I173">
-        <v>0.45979999999999999</v>
-      </c>
-      <c r="J173">
-        <v>0.51380000000000003</v>
-      </c>
-      <c r="K173">
-        <v>0.54369999999999996</v>
-      </c>
-      <c r="L173">
-        <v>0.5907</v>
-      </c>
-      <c r="M173">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="N173">
-        <v>0.84970000000000001</v>
-      </c>
-      <c r="O173">
-        <v>1.0996999999999999</v>
-      </c>
-      <c r="P173">
-        <v>0.71850000000000003</v>
-      </c>
-      <c r="Q173">
-        <v>0.64029999999999998</v>
-      </c>
-      <c r="R173">
-        <v>1.0174000000000001</v>
-      </c>
-      <c r="S173">
-        <v>1.2051000000000001</v>
-      </c>
-      <c r="T173">
-        <v>2.3828</v>
-      </c>
-      <c r="U173">
-        <v>2.3828</v>
-      </c>
-      <c r="V173">
-        <v>2.3828</v>
-      </c>
-      <c r="W173">
-        <v>2.3828</v>
-      </c>
-      <c r="X173">
-        <v>2.3828</v>
-      </c>
-      <c r="Y173">
-        <v>2.3828</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>506</v>
-      </c>
-      <c r="B174">
-        <v>5</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="E174">
-        <v>1992</v>
-      </c>
-      <c r="F174">
-        <v>0.1356</v>
-      </c>
-      <c r="G174">
-        <v>0.2316</v>
-      </c>
-      <c r="H174">
-        <v>0.3473</v>
-      </c>
-      <c r="I174">
-        <v>0.4743</v>
-      </c>
-      <c r="J174">
-        <v>0.53339999999999999</v>
-      </c>
-      <c r="K174">
-        <v>0.58169999999999999</v>
-      </c>
-      <c r="L174">
-        <v>0.621</v>
-      </c>
-      <c r="M174">
-        <v>0.64059999999999995</v>
-      </c>
-      <c r="N174">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="O174">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="P174">
-        <v>0.72170000000000001</v>
-      </c>
-      <c r="Q174">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="R174">
-        <v>0.85009999999999997</v>
-      </c>
-      <c r="S174">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="T174">
-        <v>1.0271999999999999</v>
-      </c>
-      <c r="U174">
-        <v>1.0271999999999999</v>
-      </c>
-      <c r="V174">
-        <v>1.0271999999999999</v>
-      </c>
-      <c r="W174">
-        <v>1.0271999999999999</v>
-      </c>
-      <c r="X174">
-        <v>1.0271999999999999</v>
-      </c>
-      <c r="Y174">
-        <v>1.0271999999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>506</v>
-      </c>
-      <c r="B175">
-        <v>5</v>
-      </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-      <c r="E175">
-        <v>1993</v>
-      </c>
-      <c r="F175">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="G175">
-        <v>0.24859999999999999</v>
-      </c>
-      <c r="H175">
-        <v>0.33839999999999998</v>
-      </c>
-      <c r="I175">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="J175">
-        <v>0.45390000000000003</v>
-      </c>
-      <c r="K175">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="L175">
-        <v>0.50170000000000003</v>
-      </c>
-      <c r="M175">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="N175">
-        <v>0.54910000000000003</v>
-      </c>
-      <c r="O175">
-        <v>0.51</v>
-      </c>
-      <c r="P175">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="Q175">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="R175">
-        <v>0.61350000000000005</v>
-      </c>
-      <c r="S175">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="T175">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="U175">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="V175">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="W175">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="X175">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="Y175">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>506</v>
-      </c>
-      <c r="B176">
-        <v>5</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176">
-        <v>1</v>
-      </c>
-      <c r="E176">
-        <v>1994</v>
-      </c>
-      <c r="F176">
-        <v>0.1191</v>
-      </c>
-      <c r="G176">
-        <v>0.3</v>
-      </c>
-      <c r="H176">
-        <v>0.36259999999999998</v>
-      </c>
-      <c r="I176">
-        <v>0.44690000000000002</v>
-      </c>
-      <c r="J176">
-        <v>0.44729999999999998</v>
-      </c>
-      <c r="K176">
-        <v>0.5262</v>
-      </c>
-      <c r="L176">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M176">
-        <v>0.62180000000000002</v>
-      </c>
-      <c r="N176">
-        <v>0.55979999999999996</v>
-      </c>
-      <c r="O176">
-        <v>0.6341</v>
-      </c>
-      <c r="P176">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="Q176">
-        <v>0.64910000000000001</v>
-      </c>
-      <c r="R176">
-        <v>0.73</v>
-      </c>
-      <c r="S176">
-        <v>0.70130000000000003</v>
-      </c>
-      <c r="T176">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="U176">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="V176">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="W176">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="X176">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="Y176">
-        <v>0.74550000000000005</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>506</v>
-      </c>
-      <c r="B177">
-        <v>5</v>
-      </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-      <c r="D177">
-        <v>1</v>
-      </c>
-      <c r="E177">
-        <v>1995</v>
-      </c>
-      <c r="F177">
-        <v>0.1108</v>
-      </c>
-      <c r="G177">
-        <v>0.26819999999999999</v>
-      </c>
-      <c r="H177">
-        <v>0.34179999999999999</v>
-      </c>
-      <c r="I177">
-        <v>0.48759999999999998</v>
-      </c>
-      <c r="J177">
-        <v>0.53669999999999995</v>
-      </c>
-      <c r="K177">
-        <v>0.65059999999999996</v>
-      </c>
-      <c r="L177">
-        <v>0.62490000000000001</v>
-      </c>
-      <c r="M177">
-        <v>0.65969999999999995</v>
-      </c>
-      <c r="N177">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="O177">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="P177">
-        <v>0.74450000000000005</v>
-      </c>
-      <c r="Q177">
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="R177">
-        <v>0.91010000000000002</v>
-      </c>
-      <c r="S177">
-        <v>0.6804</v>
-      </c>
-      <c r="T177">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="U177">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="V177">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="W177">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="X177">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="Y177">
-        <v>0.80079999999999996</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>506</v>
-      </c>
-      <c r="B178">
-        <v>5</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-      <c r="D178">
-        <v>1</v>
-      </c>
-      <c r="E178">
-        <v>1996</v>
-      </c>
-      <c r="F178">
-        <v>0.1007</v>
-      </c>
-      <c r="G178">
-        <v>0.28760000000000002</v>
-      </c>
-      <c r="H178">
-        <v>0.3982</v>
-      </c>
-      <c r="I178">
-        <v>0.46739999999999998</v>
-      </c>
-      <c r="J178">
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="K178">
-        <v>0.56510000000000005</v>
-      </c>
-      <c r="L178">
-        <v>0.65090000000000003</v>
-      </c>
-      <c r="M178">
-        <v>0.59570000000000001</v>
-      </c>
-      <c r="N178">
-        <v>0.63619999999999999</v>
-      </c>
-      <c r="O178">
-        <v>0.60489999999999999</v>
-      </c>
-      <c r="P178">
-        <v>0.75</v>
-      </c>
-      <c r="Q178">
-        <v>0.67559999999999998</v>
-      </c>
-      <c r="R178">
-        <v>0.81089999999999995</v>
-      </c>
-      <c r="S178">
-        <v>1.4853000000000001</v>
-      </c>
-      <c r="T178">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="U178">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="V178">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="W178">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="X178">
-        <v>0.75090000000000001</v>
-      </c>
-      <c r="Y178">
-        <v>0.75090000000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>506</v>
-      </c>
-      <c r="B179">
-        <v>5</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-      <c r="E179">
-        <v>1997</v>
-      </c>
-      <c r="F179">
-        <v>9.06E-2</v>
-      </c>
-      <c r="G179">
-        <v>0.35549999999999998</v>
-      </c>
-      <c r="H179">
-        <v>0.43219999999999997</v>
-      </c>
-      <c r="I179">
-        <v>0.49309999999999998</v>
-      </c>
-      <c r="J179">
-        <v>0.54759999999999998</v>
-      </c>
-      <c r="K179">
-        <v>0.54530000000000001</v>
-      </c>
-      <c r="L179">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="M179">
-        <v>0.58550000000000002</v>
-      </c>
-      <c r="N179">
-        <v>0.60709999999999997</v>
-      </c>
-      <c r="O179">
-        <v>0.63149999999999995</v>
-      </c>
-      <c r="P179">
-        <v>0.86329999999999996</v>
-      </c>
-      <c r="Q179">
-        <v>0.59460000000000002</v>
-      </c>
-      <c r="R179">
-        <v>0.71179999999999999</v>
-      </c>
-      <c r="S179">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="T179">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="U179">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="V179">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="W179">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="X179">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="Y179">
-        <v>0.86929999999999996</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>506</v>
-      </c>
-      <c r="B180">
-        <v>5</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="E180">
-        <v>1998</v>
-      </c>
-      <c r="F180">
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="G180">
-        <v>0.20910000000000001</v>
-      </c>
-      <c r="H180">
-        <v>0.35389999999999999</v>
-      </c>
-      <c r="I180">
-        <v>0.50409999999999999</v>
-      </c>
-      <c r="J180">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="K180">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="L180">
-        <v>0.64119999999999999</v>
-      </c>
-      <c r="M180">
-        <v>0.6099</v>
-      </c>
-      <c r="N180">
-        <v>0.67689999999999995</v>
-      </c>
-      <c r="O180">
-        <v>0.80779999999999996</v>
-      </c>
-      <c r="P180">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="Q180">
-        <v>0.81</v>
-      </c>
-      <c r="R180">
-        <v>0.77329999999999999</v>
-      </c>
-      <c r="S180">
-        <v>0.751</v>
-      </c>
-      <c r="T180">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="U180">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="V180">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="W180">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="X180">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="Y180">
-        <v>0.79790000000000005</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>506</v>
-      </c>
-      <c r="B181">
-        <v>5</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181">
-        <v>1999</v>
-      </c>
-      <c r="F181">
-        <v>0.13519999999999999</v>
-      </c>
-      <c r="G181">
-        <v>0.25019999999999998</v>
-      </c>
-      <c r="H181">
-        <v>0.34549999999999997</v>
-      </c>
-      <c r="I181">
-        <v>0.42509999999999998</v>
-      </c>
-      <c r="J181">
-        <v>0.52649999999999997</v>
-      </c>
-      <c r="K181">
-        <v>0.55689999999999995</v>
-      </c>
-      <c r="L181">
-        <v>0.57269999999999999</v>
-      </c>
-      <c r="M181">
-        <v>0.61170000000000002</v>
-      </c>
-      <c r="N181">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="O181">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="P181">
-        <v>0.79890000000000005</v>
-      </c>
-      <c r="Q181">
-        <v>0.75539999999999996</v>
-      </c>
-      <c r="R181">
-        <v>0.87870000000000004</v>
-      </c>
-      <c r="S181">
-        <v>0.73480000000000001</v>
-      </c>
-      <c r="T181">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="U181">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="V181">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="W181">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="X181">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="Y181">
-        <v>0.81869999999999998</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>506</v>
-      </c>
-      <c r="B182">
-        <v>5</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-      <c r="E182">
-        <v>2000</v>
-      </c>
-      <c r="F182">
-        <v>0.18990000000000001</v>
-      </c>
-      <c r="G182">
-        <v>0.3216</v>
-      </c>
-      <c r="H182">
-        <v>0.47289999999999999</v>
-      </c>
-      <c r="I182">
-        <v>0.5766</v>
-      </c>
-      <c r="J182">
-        <v>0.65980000000000005</v>
-      </c>
-      <c r="K182">
-        <v>0.71760000000000002</v>
-      </c>
-      <c r="L182">
-        <v>0.72789999999999999</v>
-      </c>
-      <c r="M182">
-        <v>0.75390000000000001</v>
-      </c>
-      <c r="N182">
-        <v>0.83779999999999999</v>
-      </c>
-      <c r="O182">
-        <v>0.81589999999999996</v>
-      </c>
-      <c r="P182">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="Q182">
-        <v>0.85540000000000005</v>
-      </c>
-      <c r="R182">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="S182">
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="T182">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="U182">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="V182">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="W182">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="X182">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="Y182">
-        <v>0.93359999999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>506</v>
-      </c>
-      <c r="B183">
-        <v>5</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183">
-        <v>1</v>
-      </c>
-      <c r="E183">
-        <v>2001</v>
-      </c>
-      <c r="F183">
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="G183">
-        <v>0.28670000000000001</v>
-      </c>
-      <c r="H183">
-        <v>0.48430000000000001</v>
-      </c>
-      <c r="I183">
-        <v>0.65269999999999995</v>
-      </c>
-      <c r="J183">
-        <v>0.66449999999999998</v>
-      </c>
-      <c r="K183">
-        <v>0.74690000000000001</v>
-      </c>
-      <c r="L183">
-        <v>0.8629</v>
-      </c>
-      <c r="M183">
-        <v>0.85550000000000004</v>
-      </c>
-      <c r="N183">
-        <v>0.88019999999999998</v>
-      </c>
-      <c r="O183">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="P183">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="Q183">
-        <v>1.0054000000000001</v>
-      </c>
-      <c r="R183">
-        <v>1.0494000000000001</v>
-      </c>
-      <c r="S183">
-        <v>0.99270000000000003</v>
-      </c>
-      <c r="T183">
-        <v>0.9768</v>
-      </c>
-      <c r="U183">
-        <v>0.9768</v>
-      </c>
-      <c r="V183">
-        <v>0.9768</v>
-      </c>
-      <c r="W183">
-        <v>0.9768</v>
-      </c>
-      <c r="X183">
-        <v>0.9768</v>
-      </c>
-      <c r="Y183">
-        <v>0.9768</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>506</v>
-      </c>
-      <c r="B184">
-        <v>5</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
-      <c r="E184">
-        <v>2002</v>
-      </c>
-      <c r="F184">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="G184">
-        <v>0.35830000000000001</v>
-      </c>
-      <c r="H184">
-        <v>0.45750000000000002</v>
-      </c>
-      <c r="I184">
-        <v>0.60580000000000001</v>
-      </c>
-      <c r="J184">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="K184">
-        <v>0.7581</v>
-      </c>
-      <c r="L184">
-        <v>0.8488</v>
-      </c>
-      <c r="M184">
-        <v>0.97709999999999997</v>
-      </c>
-      <c r="N184">
-        <v>0.93220000000000003</v>
-      </c>
-      <c r="O184">
-        <v>0.91759999999999997</v>
-      </c>
-      <c r="P184">
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="Q184">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="R184">
-        <v>0.92359999999999998</v>
-      </c>
-      <c r="S184">
-        <v>1.125</v>
-      </c>
-      <c r="T184">
-        <v>1.0572999999999999</v>
-      </c>
-      <c r="U184">
-        <v>1.0572999999999999</v>
-      </c>
-      <c r="V184">
-        <v>1.0572999999999999</v>
-      </c>
-      <c r="W184">
-        <v>1.0572999999999999</v>
-      </c>
-      <c r="X184">
-        <v>1.0572999999999999</v>
-      </c>
-      <c r="Y184">
-        <v>1.0572999999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>506</v>
-      </c>
-      <c r="B185">
-        <v>5</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185">
-        <v>2003</v>
-      </c>
-      <c r="F185">
-        <v>0.1</v>
-      </c>
-      <c r="G185">
-        <v>0.25509999999999999</v>
-      </c>
-      <c r="H185">
-        <v>0.4355</v>
-      </c>
-      <c r="I185">
-        <v>0.52249999999999996</v>
-      </c>
-      <c r="J185">
-        <v>0.58850000000000002</v>
-      </c>
-      <c r="K185">
-        <v>0.75690000000000002</v>
-      </c>
-      <c r="L185">
-        <v>0.6915</v>
-      </c>
-      <c r="M185">
-        <v>0.74690000000000001</v>
-      </c>
-      <c r="N185">
-        <v>0.8246</v>
-      </c>
-      <c r="O185">
-        <v>0.76919999999999999</v>
-      </c>
-      <c r="P185">
-        <v>0.88870000000000005</v>
-      </c>
-      <c r="Q185">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="R185">
-        <v>0.78939999999999999</v>
-      </c>
-      <c r="S185">
-        <v>0.84140000000000004</v>
-      </c>
-      <c r="T185">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="U185">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="V185">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="W185">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="X185">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="Y185">
-        <v>0.99650000000000005</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>506</v>
-      </c>
-      <c r="B186">
-        <v>5</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="E186">
-        <v>2004</v>
-      </c>
-      <c r="F186">
-        <v>0.1081</v>
-      </c>
-      <c r="G186">
-        <v>0.2</v>
-      </c>
-      <c r="H186">
-        <v>0.436</v>
-      </c>
-      <c r="I186">
-        <v>0.48070000000000002</v>
-      </c>
-      <c r="J186">
-        <v>0.53190000000000004</v>
-      </c>
-      <c r="K186">
-        <v>0.64780000000000004</v>
-      </c>
-      <c r="L186">
-        <v>0.70679999999999998</v>
-      </c>
-      <c r="M186">
-        <v>0.65790000000000004</v>
-      </c>
-      <c r="N186">
-        <v>0.70940000000000003</v>
-      </c>
-      <c r="O186">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="P186">
-        <v>0.85809999999999997</v>
-      </c>
-      <c r="Q186">
-        <v>0.77149999999999996</v>
-      </c>
-      <c r="R186">
-        <v>0.97040000000000004</v>
-      </c>
-      <c r="S186">
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="T186">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="U186">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="V186">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="W186">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="X186">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="Y186">
-        <v>0.89590000000000003</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>506</v>
-      </c>
-      <c r="B187">
-        <v>5</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-      <c r="E187">
-        <v>2005</v>
-      </c>
-      <c r="F187">
-        <v>0.1162</v>
-      </c>
-      <c r="G187">
-        <v>0.26029999999999998</v>
-      </c>
-      <c r="H187">
-        <v>0.43109999999999998</v>
-      </c>
-      <c r="I187">
-        <v>0.50860000000000005</v>
-      </c>
-      <c r="J187">
-        <v>0.5393</v>
-      </c>
-      <c r="K187">
-        <v>0.56820000000000004</v>
-      </c>
-      <c r="L187">
-        <v>0.63360000000000005</v>
-      </c>
-      <c r="M187">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="N187">
-        <v>0.70269999999999999</v>
-      </c>
-      <c r="O187">
-        <v>0.79620000000000002</v>
-      </c>
-      <c r="P187">
-        <v>0.81040000000000001</v>
-      </c>
-      <c r="Q187">
-        <v>0.81089999999999995</v>
-      </c>
-      <c r="R187">
-        <v>0.76019999999999999</v>
-      </c>
-      <c r="S187">
-        <v>1.1449</v>
-      </c>
-      <c r="T187">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="U187">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="V187">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="W187">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="X187">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="Y187">
-        <v>0.96779999999999999</v>
-      </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>506</v>
-      </c>
-      <c r="B188">
-        <v>5</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-      <c r="E188">
-        <v>2006</v>
-      </c>
-      <c r="F188">
-        <v>0.13239999999999999</v>
-      </c>
-      <c r="G188">
-        <v>0.3831</v>
-      </c>
-      <c r="H188">
-        <v>0.45750000000000002</v>
-      </c>
-      <c r="I188">
-        <v>0.53410000000000002</v>
-      </c>
-      <c r="J188">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="K188">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="L188">
-        <v>0.59789999999999999</v>
-      </c>
-      <c r="M188">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="N188">
-        <v>0.69969999999999999</v>
-      </c>
-      <c r="O188">
-        <v>0.72589999999999999</v>
-      </c>
-      <c r="P188">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="Q188">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="R188">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="S188">
-        <v>0.63990000000000002</v>
-      </c>
-      <c r="T188">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="U188">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="V188">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="W188">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="X188">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="Y188">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>506</v>
-      </c>
-      <c r="B189">
-        <v>5</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-      <c r="E189">
-        <v>2007</v>
-      </c>
-      <c r="F189">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="G189">
-        <v>0.22720000000000001</v>
-      </c>
-      <c r="H189">
-        <v>0.37759999999999999</v>
-      </c>
-      <c r="I189">
-        <v>0.53520000000000001</v>
-      </c>
-      <c r="J189">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="K189">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="L189">
-        <v>0.63280000000000003</v>
-      </c>
-      <c r="M189">
-        <v>0.64749999999999996</v>
-      </c>
-      <c r="N189">
-        <v>0.70550000000000002</v>
-      </c>
-      <c r="O189">
-        <v>0.77229999999999999</v>
-      </c>
-      <c r="P189">
-        <v>0.76270000000000004</v>
-      </c>
-      <c r="Q189">
-        <v>0.81369999999999998</v>
-      </c>
-      <c r="R189">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="S189">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="T189">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="U189">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="V189">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="W189">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="X189">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="Y189">
-        <v>0.86980000000000002</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>506</v>
-      </c>
-      <c r="B190">
-        <v>5</v>
-      </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-      <c r="E190">
-        <v>2008</v>
-      </c>
-      <c r="F190">
-        <v>0.1346</v>
-      </c>
-      <c r="G190">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="H190">
-        <v>0.40789999999999998</v>
-      </c>
-      <c r="I190">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="J190">
-        <v>0.63649999999999995</v>
-      </c>
-      <c r="K190">
-        <v>0.6865</v>
-      </c>
-      <c r="L190">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="M190">
-        <v>0.70979999999999999</v>
-      </c>
-      <c r="N190">
-        <v>0.72109999999999996</v>
-      </c>
-      <c r="O190">
-        <v>0.74880000000000002</v>
-      </c>
-      <c r="P190">
-        <v>0.80730000000000002</v>
-      </c>
-      <c r="Q190">
-        <v>0.84830000000000005</v>
-      </c>
-      <c r="R190">
-        <v>0.77549999999999997</v>
-      </c>
-      <c r="S190">
-        <v>0.88339999999999996</v>
-      </c>
-      <c r="T190">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="U190">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="V190">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="W190">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="X190">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="Y190">
-        <v>0.83320000000000005</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>506</v>
-      </c>
-      <c r="B191">
-        <v>5</v>
-      </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-      <c r="E191">
-        <v>2009</v>
-      </c>
-      <c r="F191">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="G191">
-        <v>0.24479999999999999</v>
-      </c>
-      <c r="H191">
-        <v>0.34310000000000002</v>
-      </c>
-      <c r="I191">
-        <v>0.47120000000000001</v>
-      </c>
-      <c r="J191">
-        <v>0.6371</v>
-      </c>
-      <c r="K191">
-        <v>0.67020000000000002</v>
-      </c>
-      <c r="L191">
-        <v>0.69420000000000004</v>
-      </c>
-      <c r="M191">
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="N191">
-        <v>0.8226</v>
-      </c>
-      <c r="O191">
-        <v>0.76739999999999997</v>
-      </c>
-      <c r="P191">
-        <v>0.81389999999999996</v>
-      </c>
-      <c r="Q191">
-        <v>1.0146999999999999</v>
-      </c>
-      <c r="R191">
-        <v>0.85029999999999994</v>
-      </c>
-      <c r="S191">
-        <v>0.95820000000000005</v>
-      </c>
-      <c r="T191">
-        <v>1.0334000000000001</v>
-      </c>
-      <c r="U191">
-        <v>1.0334000000000001</v>
-      </c>
-      <c r="V191">
-        <v>1.0334000000000001</v>
-      </c>
-      <c r="W191">
-        <v>1.0334000000000001</v>
-      </c>
-      <c r="X191">
-        <v>1.0334000000000001</v>
-      </c>
-      <c r="Y191">
-        <v>1.0334000000000001</v>
-      </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>506</v>
-      </c>
-      <c r="B192">
-        <v>5</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192">
-        <v>1</v>
-      </c>
-      <c r="E192">
-        <v>2010</v>
-      </c>
-      <c r="F192">
-        <v>0.1089</v>
-      </c>
-      <c r="G192">
-        <v>0.2326</v>
-      </c>
-      <c r="H192">
-        <v>0.2918</v>
-      </c>
-      <c r="I192">
-        <v>0.43319999999999997</v>
-      </c>
-      <c r="J192">
-        <v>0.5302</v>
-      </c>
-      <c r="K192">
-        <v>0.65820000000000001</v>
-      </c>
-      <c r="L192">
-        <v>0.83489999999999998</v>
-      </c>
-      <c r="M192">
-        <v>1.0828</v>
-      </c>
-      <c r="N192">
-        <v>1.0276000000000001</v>
-      </c>
-      <c r="O192">
-        <v>0.95820000000000005</v>
-      </c>
-      <c r="P192">
-        <v>0.87629999999999997</v>
-      </c>
-      <c r="Q192">
-        <v>0.85240000000000005</v>
-      </c>
-      <c r="R192">
-        <v>1.1253</v>
-      </c>
-      <c r="S192">
-        <v>0.72</v>
-      </c>
-      <c r="T192">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="U192">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="V192">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="W192">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="X192">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="Y192">
-        <v>0.90210000000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>506</v>
-      </c>
-      <c r="B193">
-        <v>5</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-      <c r="D193">
-        <v>1</v>
-      </c>
-      <c r="E193">
-        <v>2011</v>
-      </c>
-      <c r="F193">
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="G193">
-        <v>0.2457</v>
-      </c>
-      <c r="H193">
-        <v>0.32190000000000002</v>
-      </c>
-      <c r="I193">
-        <v>0.38669999999999999</v>
-      </c>
-      <c r="J193">
-        <v>0.51419999999999999</v>
-      </c>
-      <c r="K193">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="L193">
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="M193">
-        <v>0.85340000000000005</v>
-      </c>
-      <c r="N193">
-        <v>0.9294</v>
-      </c>
-      <c r="O193">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="P193">
-        <v>1.0749</v>
-      </c>
-      <c r="Q193">
-        <v>1.0588</v>
-      </c>
-      <c r="R193">
-        <v>1.0279</v>
-      </c>
-      <c r="S193">
-        <v>1.0557000000000001</v>
-      </c>
-      <c r="T193">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="U193">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="V193">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="W193">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="X193">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="Y193">
-        <v>0.92120000000000002</v>
-      </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>506</v>
-      </c>
-      <c r="B194">
-        <v>5</v>
-      </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-      <c r="D194">
-        <v>1</v>
-      </c>
-      <c r="E194">
-        <v>2012</v>
-      </c>
-      <c r="F194">
-        <v>0.129</v>
-      </c>
-      <c r="G194">
-        <v>0.2145</v>
-      </c>
-      <c r="H194">
-        <v>0.35360000000000003</v>
-      </c>
-      <c r="I194">
-        <v>0.40939999999999999</v>
-      </c>
-      <c r="J194">
-        <v>0.4889</v>
-      </c>
-      <c r="K194">
-        <v>0.65620000000000001</v>
-      </c>
-      <c r="L194">
-        <v>0.69069999999999998</v>
-      </c>
-      <c r="M194">
-        <v>0.77749999999999997</v>
-      </c>
-      <c r="N194">
-        <v>0.90720000000000001</v>
-      </c>
-      <c r="O194">
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="P194">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="Q194">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="R194">
-        <v>0.9889</v>
-      </c>
-      <c r="S194">
-        <v>0.99239999999999995</v>
-      </c>
-      <c r="T194">
-        <v>0.9425</v>
-      </c>
-      <c r="U194">
-        <v>0.9425</v>
-      </c>
-      <c r="V194">
-        <v>0.9425</v>
-      </c>
-      <c r="W194">
-        <v>0.9425</v>
-      </c>
-      <c r="X194">
-        <v>0.9425</v>
-      </c>
-      <c r="Y194">
-        <v>0.9425</v>
-      </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>506</v>
-      </c>
-      <c r="B195">
-        <v>5</v>
-      </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-      <c r="D195">
-        <v>1</v>
-      </c>
-      <c r="E195">
-        <v>2013</v>
-      </c>
-      <c r="F195">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="G195">
-        <v>0.28739999999999999</v>
-      </c>
-      <c r="H195">
-        <v>0.35949999999999999</v>
-      </c>
-      <c r="I195">
-        <v>0.46970000000000001</v>
-      </c>
-      <c r="J195">
-        <v>0.51039999999999996</v>
-      </c>
-      <c r="K195">
-        <v>0.626</v>
-      </c>
-      <c r="L195">
-        <v>0.71650000000000003</v>
-      </c>
-      <c r="M195">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="N195">
-        <v>0.83130000000000004</v>
-      </c>
-      <c r="O195">
-        <v>0.99890000000000001</v>
-      </c>
-      <c r="P195">
-        <v>1.0751999999999999</v>
-      </c>
-      <c r="Q195">
-        <v>1.2302999999999999</v>
-      </c>
-      <c r="R195">
-        <v>1.1187</v>
-      </c>
-      <c r="S195">
-        <v>1.0682</v>
-      </c>
-      <c r="T195">
-        <v>1.0545</v>
-      </c>
-      <c r="U195">
-        <v>1.0545</v>
-      </c>
-      <c r="V195">
-        <v>1.0545</v>
-      </c>
-      <c r="W195">
-        <v>1.0545</v>
-      </c>
-      <c r="X195">
-        <v>1.0545</v>
-      </c>
-      <c r="Y195">
-        <v>1.0545</v>
-      </c>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>506</v>
-      </c>
-      <c r="B196">
-        <v>5</v>
-      </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-      <c r="D196">
-        <v>1</v>
-      </c>
-      <c r="E196">
-        <v>2014</v>
-      </c>
-      <c r="F196">
-        <v>0.1028</v>
-      </c>
-      <c r="G196">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="H196">
-        <v>0.46860000000000002</v>
-      </c>
-      <c r="I196">
-        <v>0.47970000000000002</v>
-      </c>
-      <c r="J196">
-        <v>0.53620000000000001</v>
-      </c>
-      <c r="K196">
-        <v>0.57410000000000005</v>
-      </c>
-      <c r="L196">
-        <v>0.61980000000000002</v>
-      </c>
-      <c r="M196">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="N196">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="O196">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="P196">
-        <v>1.1645000000000001</v>
-      </c>
-      <c r="Q196">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="R196">
-        <v>0.94910000000000005</v>
-      </c>
-      <c r="S196">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="T196">
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="U196">
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="V196">
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="W196">
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="X196">
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="Y196">
-        <v>1.0579000000000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>506</v>
-      </c>
-      <c r="B197">
-        <v>5</v>
-      </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-      <c r="D197">
-        <v>1</v>
-      </c>
-      <c r="E197">
-        <v>2015</v>
-      </c>
-      <c r="F197">
-        <v>7.5899999999999995E-2</v>
-      </c>
-      <c r="G197">
-        <v>0.24709999999999999</v>
-      </c>
-      <c r="H197">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="I197">
-        <v>0.44450000000000001</v>
-      </c>
-      <c r="J197">
-        <v>0.4708</v>
-      </c>
-      <c r="K197">
-        <v>0.55310000000000004</v>
-      </c>
-      <c r="L197">
-        <v>0.5948</v>
-      </c>
-      <c r="M197">
-        <v>0.67490000000000006</v>
-      </c>
-      <c r="N197">
-        <v>0.68789999999999996</v>
-      </c>
-      <c r="O197">
-        <v>0.71789999999999998</v>
-      </c>
-      <c r="P197">
-        <v>0.8337</v>
-      </c>
-      <c r="Q197">
-        <v>0.95230000000000004</v>
-      </c>
-      <c r="R197">
-        <v>1.0185</v>
-      </c>
-      <c r="S197">
-        <v>1.0892999999999999</v>
-      </c>
-      <c r="T197">
-        <v>1.2493000000000001</v>
-      </c>
-      <c r="U197">
-        <v>1.2493000000000001</v>
-      </c>
-      <c r="V197">
-        <v>1.2493000000000001</v>
-      </c>
-      <c r="W197">
-        <v>1.2493000000000001</v>
-      </c>
-      <c r="X197">
-        <v>1.2493000000000001</v>
-      </c>
-      <c r="Y197">
-        <v>1.2493000000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>506</v>
-      </c>
-      <c r="B198">
-        <v>5</v>
-      </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-      <c r="D198">
-        <v>1</v>
-      </c>
-      <c r="E198">
-        <v>2016</v>
-      </c>
-      <c r="F198">
-        <v>0.1653</v>
-      </c>
-      <c r="G198">
-        <v>0.24390000000000001</v>
-      </c>
-      <c r="H198">
-        <v>0.3831</v>
-      </c>
-      <c r="I198">
-        <v>0.41589999999999999</v>
-      </c>
-      <c r="J198">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="K198">
-        <v>0.46379999999999999</v>
-      </c>
-      <c r="L198">
-        <v>0.5141</v>
-      </c>
-      <c r="M198">
-        <v>0.51639999999999997</v>
-      </c>
-      <c r="N198">
-        <v>0.51270000000000004</v>
-      </c>
-      <c r="O198">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="P198">
-        <v>0.7198</v>
-      </c>
-      <c r="Q198">
-        <v>0.5948</v>
-      </c>
-      <c r="R198">
-        <v>0.77559999999999996</v>
-      </c>
-      <c r="S198">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="T198">
-        <v>1.5802</v>
-      </c>
-      <c r="U198">
-        <v>1.5802</v>
-      </c>
-      <c r="V198">
-        <v>1.5802</v>
-      </c>
-      <c r="W198">
-        <v>1.5802</v>
-      </c>
-      <c r="X198">
-        <v>1.5802</v>
-      </c>
-      <c r="Y198">
-        <v>1.5802</v>
-      </c>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>506</v>
-      </c>
-      <c r="B199">
-        <v>5</v>
-      </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-      <c r="D199">
-        <v>1</v>
-      </c>
-      <c r="E199">
-        <v>2017</v>
-      </c>
-      <c r="F199">
-        <v>0.14050000000000001</v>
-      </c>
-      <c r="G199">
-        <v>0.3115</v>
-      </c>
-      <c r="H199">
-        <v>0.40110000000000001</v>
-      </c>
-      <c r="I199">
-        <v>0.47</v>
-      </c>
-      <c r="J199">
-        <v>0.5101</v>
-      </c>
-      <c r="K199">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="L199">
-        <v>0.54210000000000003</v>
-      </c>
-      <c r="M199">
-        <v>0.57120000000000004</v>
-      </c>
-      <c r="N199">
-        <v>0.61809999999999998</v>
-      </c>
-      <c r="O199">
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="P199">
-        <v>0.68969999999999998</v>
-      </c>
-      <c r="Q199">
-        <v>0.75539999999999996</v>
-      </c>
-      <c r="R199">
-        <v>0.75109999999999999</v>
-      </c>
-      <c r="S199">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="T199">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="U199">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="V199">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="W199">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="X199">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="Y199">
-        <v>0.89190000000000003</v>
-      </c>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>506</v>
-      </c>
-      <c r="B200">
-        <v>5</v>
-      </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-      <c r="D200">
-        <v>1</v>
-      </c>
-      <c r="E200">
-        <v>2018</v>
-      </c>
-      <c r="F200">
-        <v>0.187</v>
-      </c>
-      <c r="G200">
-        <v>0.35439999999999999</v>
-      </c>
-      <c r="H200">
-        <v>0.46329999999999999</v>
-      </c>
-      <c r="I200">
-        <v>0.50290000000000001</v>
-      </c>
-      <c r="J200">
-        <v>0.53569999999999995</v>
-      </c>
-      <c r="K200">
-        <v>0.55179999999999996</v>
-      </c>
-      <c r="L200">
-        <v>0.61739999999999995</v>
-      </c>
-      <c r="M200">
-        <v>0.58960000000000001</v>
-      </c>
-      <c r="N200">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="O200">
-        <v>0.6431</v>
-      </c>
-      <c r="P200">
-        <v>0.67610000000000003</v>
-      </c>
-      <c r="Q200">
-        <v>0.68869999999999998</v>
-      </c>
-      <c r="R200">
-        <v>0.7238</v>
-      </c>
-      <c r="S200">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="T200">
-        <v>1.07</v>
-      </c>
-      <c r="U200">
-        <v>1.07</v>
-      </c>
-      <c r="V200">
-        <v>1.07</v>
-      </c>
-      <c r="W200">
-        <v>1.07</v>
-      </c>
-      <c r="X200">
-        <v>1.07</v>
-      </c>
-      <c r="Y200">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>506</v>
-      </c>
-      <c r="B201">
-        <v>5</v>
-      </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-      <c r="D201">
-        <v>1</v>
-      </c>
-      <c r="E201">
-        <v>2019</v>
-      </c>
-      <c r="F201">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="G201">
-        <v>0.28160000000000002</v>
-      </c>
-      <c r="H201">
-        <v>0.441</v>
-      </c>
-      <c r="I201">
-        <v>0.4844</v>
-      </c>
-      <c r="J201">
-        <v>0.52280000000000004</v>
-      </c>
-      <c r="K201">
-        <v>0.53979999999999995</v>
-      </c>
-      <c r="L201">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="M201">
-        <v>0.62250000000000005</v>
-      </c>
-      <c r="N201">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="O201">
-        <v>0.63070000000000004</v>
-      </c>
-      <c r="P201">
-        <v>0.68510000000000004</v>
-      </c>
-      <c r="Q201">
-        <v>0.64549999999999996</v>
-      </c>
-      <c r="R201">
-        <v>0.84160000000000001</v>
-      </c>
-      <c r="S201">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="T201">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="U201">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="V201">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="W201">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="X201">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="Y201">
         <v>0.79339999999999999</v>
       </c>
     </row>
@@ -24048,7 +17882,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27171,7 +21005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
